--- a/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,209 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4851000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4513000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3997000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3737000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3603000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3392000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3281000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3006000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2865000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2701000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2577000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2397000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2294000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2144800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1220000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1134000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>967000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>914000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>946000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>889000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>849000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>767000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>738000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>714000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>670000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>651000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>626000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>585500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3631000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3379000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3030000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2823000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2657000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2503000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2432000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2239000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2127000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1987000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1907000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1746000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1668000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1559300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,52 +884,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>993000</v>
+      </c>
+      <c r="E12" s="3">
         <v>943000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>705000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>635000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>518000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>481000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>463000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>424000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>396000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>394000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>387000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>376000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>344200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>311500</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -960,8 +976,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>166000</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>19000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1004,52 +1023,58 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E15" s="3">
         <v>109000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>65000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>68000</v>
       </c>
       <c r="G15" s="3">
         <v>68000</v>
       </c>
       <c r="H15" s="3">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="I15" s="3">
         <v>67000</v>
       </c>
       <c r="J15" s="3">
+        <v>67000</v>
+      </c>
+      <c r="K15" s="3">
         <v>30000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>30300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>30400</v>
-      </c>
-      <c r="M15" s="3">
-        <v>31400</v>
       </c>
       <c r="N15" s="3">
         <v>31400</v>
       </c>
       <c r="O15" s="3">
+        <v>31400</v>
+      </c>
+      <c r="P15" s="3">
         <v>31600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1088,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4887000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4448000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3939000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3527000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3466000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3300000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3166000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2815000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2654000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2546000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2493000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2393000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2317900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2142300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E18" s="3">
         <v>65000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>58000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>210000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>137000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>92000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>115000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>191000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>211000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>155000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>84000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-23900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,228 +1201,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E20" s="3">
         <v>30000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>140000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>307000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>143000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>76000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>155000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>228000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>32000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>24800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>659000</v>
+      </c>
+      <c r="E21" s="3">
         <v>703000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>655000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>954000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>553000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>424000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>522000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>600000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>431000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>355000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>277000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>197000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>181600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>178700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E22" s="3">
         <v>31000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>34000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>35000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>41000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>40000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>39000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>34000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>22000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>22000</v>
       </c>
       <c r="N22" s="3">
         <v>22000</v>
       </c>
       <c r="O22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="P22" s="3">
         <v>24300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>64000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>164000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>482000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>239000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>128000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>231000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>385000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>221000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>146000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>63000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-23500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E24" s="3">
         <v>173000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>73000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>90000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-166000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-68000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>41000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-111000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-11000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1481,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-242000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-109000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>91000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>392000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>405000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>105000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>299000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>344000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>332000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>107000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>46000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-51400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-242000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-109000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>91000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>392000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>405000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>105000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>299000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>344000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>332000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>107000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>46000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-51400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,13 +1622,16 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>-6000</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>10</v>
@@ -1579,11 +1639,11 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3">
         <v>-43000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1591,11 +1651,11 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3">
         <v>-126000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -1609,8 +1669,11 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1716,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1763,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-30000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-140000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-307000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-143000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-76000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-155000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-228000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-32000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-24800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-248000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-109000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>91000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>392000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>362000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>105000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>299000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>344000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>206000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>107000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>46000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-51400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1904,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-248000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-109000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>91000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>392000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>362000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>105000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>299000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>344000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>206000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>107000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>46000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-51400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2024,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,140 +2043,150 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4145000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3868000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3510000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4110000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2669000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2105000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2319000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5922000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2543000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2071800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1949100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2024900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1606500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1145700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3802000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2661000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2532000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2269000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1673000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1345000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1108000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1237000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1978000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1556800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1552100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1194600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>602300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>55100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7100000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3386000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3118000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2939000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5712000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2753000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2688000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2464000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4625000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1553000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1606000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1473600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3230800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1307300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2134,228 +2229,246 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>916000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1111000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>743000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>717000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>629000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>667000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>687000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>528000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>964900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>764500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>704100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>711400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>557100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15963000</v>
+      </c>
+      <c r="E46" s="3">
         <v>11026000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9903000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10035000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10683000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6870000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6802000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10151000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9584000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5946200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5811300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5404500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5996800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3001600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3404000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2983000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2800000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2797000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2655000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2378000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2371000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2200000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1941000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>670400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>657700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>639200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>567000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1106300</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5415000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5515000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5187000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5097000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2051000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1998000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1986000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1950000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1947000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1864900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1866600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1846400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1787500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1756700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29858000</v>
+      </c>
+      <c r="E49" s="3">
         <v>30009000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14924000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14648000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14926000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>15078000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14408000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8429000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8478800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8357500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8431600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8507900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8567700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7888700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2511,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2558,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>486000</v>
+      </c>
+      <c r="E52" s="3">
         <v>409000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>522000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>577000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>422000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>264000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>256000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>233000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>999400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>651100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>651600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>661000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>675500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>634500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2652,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>55126000</v>
+      </c>
+      <c r="E54" s="3">
         <v>49942000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33336000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33154000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>30737000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26588000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25823000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22963000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21984000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17490000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17418800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17058900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17584900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14387700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2720,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,272 +2739,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2816000</v>
+        <v>3356000</v>
       </c>
       <c r="E57" s="3">
+        <v>2763000</v>
+      </c>
+      <c r="F57" s="3">
         <v>2271000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2050000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>165000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>160000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>201000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>134000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>146900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>120000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>148300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>128100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>227500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E58" s="3">
         <v>65000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>76000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>178000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>216000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>706000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>708000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>103000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1128000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1272000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1269400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1143200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>121700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7593000</v>
+        <v>11436000</v>
       </c>
       <c r="E59" s="3">
+        <v>7646000</v>
+      </c>
+      <c r="F59" s="3">
         <v>7848000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8260000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10874000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7156000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7560000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7658000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9838600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5824400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6108500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6354600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7657500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4815500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14845000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10474000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10195000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10488000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11255000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8022000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8469000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7895000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10067000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7216400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7526200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7625900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7295500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4975500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3005000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3158000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3309000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3532000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3430000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3685000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3690000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3885000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>695000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1327000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1329900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1392300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2690000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2496200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3391000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3031000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2666000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2688000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>447000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>188000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>136000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>123000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>967000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>117200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>111400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>106300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>136500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3066,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3113,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3160,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21241000</v>
+      </c>
+      <c r="E66" s="3">
         <v>16663000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16170000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16708000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15132000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11895000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12295000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11903000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11608000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8660700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8967500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9124400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10084800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7581600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3228,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3273,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3320,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3367,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3414,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1861000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2109000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2218000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2127000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1735000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1373000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1269000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>969000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>635000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-405000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-456400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-474100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-464900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-413500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3508,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3555,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3602,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>33885000</v>
+      </c>
+      <c r="E76" s="3">
         <v>33279000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17166000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16446000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15605000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14693000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13528000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11060000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10376000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8829400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8451300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7934500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7500100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6806000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3696,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-248000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-109000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>91000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>392000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>362000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>105000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>299000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>344000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>206000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>107000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>46000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-51400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +3816,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>633000</v>
+      </c>
+      <c r="E83" s="3">
         <v>608000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>457000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>437000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>273000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>256000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>252000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>181000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>188000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>187600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>192300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>185100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>180800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +3908,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +3955,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4002,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4049,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4096,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1632000</v>
+      </c>
+      <c r="E89" s="3">
         <v>298000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>436000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1965000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1331000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>143000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>458000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1466000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1051400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>125600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>331000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1230000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>706100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4164,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-170000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-178000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-159000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-167000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-136000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-170000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-122000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-138000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-111000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-128400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-313600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-144000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4256,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4303,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1465000</v>
+      </c>
+      <c r="E94" s="3">
         <v>63000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-852000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-726000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-378000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-545000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4661000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>276000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-583900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-135300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-523600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-767700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-497800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-193800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,8 +4371,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4183,8 +4416,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4463,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4510,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,136 +4557,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E100" s="3">
         <v>15000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-183000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>207000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-386000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>182000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>589000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1625000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>19200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>134000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>117000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-49000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>260000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>81800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-18000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>11000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>12000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E102" s="3">
         <v>358000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1441000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>564000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-214000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3603000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3379000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>471600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>122700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-75800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>418400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>460800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>30500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>CRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,221 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4865000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4851000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4513000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3997000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3737000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3603000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3392000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3281000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3006000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2865000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2701000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2577000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2397000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2294000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2144800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1254000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1220000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1134000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>967000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>914000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>946000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>889000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>849000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>767000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>738000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>714000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>670000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>651000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>626000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>585500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3611000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3631000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3379000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3030000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2823000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2657000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2503000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2432000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2239000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2127000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1987000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1907000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1746000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1668000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1559300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,55 +897,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1025000</v>
+      </c>
+      <c r="E12" s="3">
         <v>993000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>943000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>705000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>635000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>518000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>481000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>463000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>424000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>396000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>394000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>387000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>376000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>344200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>311500</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -979,37 +995,40 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>166000</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>19000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1026,55 +1045,61 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E15" s="3">
         <v>110000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>109000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>65000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>68000</v>
       </c>
       <c r="H15" s="3">
         <v>68000</v>
       </c>
       <c r="I15" s="3">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="J15" s="3">
         <v>67000</v>
       </c>
       <c r="K15" s="3">
+        <v>67000</v>
+      </c>
+      <c r="L15" s="3">
         <v>30000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>30300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>30400</v>
-      </c>
-      <c r="N15" s="3">
-        <v>31400</v>
       </c>
       <c r="O15" s="3">
         <v>31400</v>
       </c>
       <c r="P15" s="3">
+        <v>31400</v>
+      </c>
+      <c r="Q15" s="3">
         <v>31600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1089,102 +1114,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5005000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4887000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4448000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3939000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3527000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3466000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3300000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3166000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2815000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2654000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2546000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2493000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2393000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2317900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2142300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-36000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>65000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>58000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>210000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>137000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>92000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>115000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>191000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>211000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>155000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>84000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1202,243 +1234,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E20" s="3">
         <v>62000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>30000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>140000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>307000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>143000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>76000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>155000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>228000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>32000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>24800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>730000</v>
+      </c>
+      <c r="E21" s="3">
         <v>659000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>703000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>655000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>954000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>553000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>424000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>522000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>600000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>431000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>355000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>277000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>197000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>181600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>178700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E22" s="3">
         <v>30000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>31000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>34000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>35000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>41000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>40000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>39000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>22000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>21000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>22000</v>
       </c>
       <c r="O22" s="3">
         <v>22000</v>
       </c>
       <c r="P22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>24300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>64000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>164000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>482000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>239000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>128000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>231000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>385000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>221000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>146000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>63000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-23500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E24" s="3">
         <v>238000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>173000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>73000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>90000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-166000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-68000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>41000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-111000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>39000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-11000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1484,102 +1532,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-242000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-109000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>91000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>392000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>405000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>105000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>299000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>344000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>332000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>107000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>46000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-51400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-242000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-109000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>91000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>392000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>405000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>105000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>299000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>344000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>332000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>107000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>46000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-51400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1625,16 +1682,19 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3">
         <v>-6000</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1642,11 +1702,11 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3">
         <v>-43000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1654,11 +1714,11 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3">
         <v>-126000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1672,8 +1732,11 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1719,8 +1782,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1766,102 +1832,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-212000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-62000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-30000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-140000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-307000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-143000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-76000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-155000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-228000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-32000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-24800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-248000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-109000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>91000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>392000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>362000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>105000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>299000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>344000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>206000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>107000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>46000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-51400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1907,107 +1982,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-248000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-109000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>91000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>392000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>362000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>105000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>299000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>344000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>206000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>107000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>46000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-51400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2025,8 +2109,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2044,149 +2129,159 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5772000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4145000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3868000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3510000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4110000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2669000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2105000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2319000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5922000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2543000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2071800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1949100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2024900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1606500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1145700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4030000</v>
+      </c>
+      <c r="E42" s="3">
         <v>3802000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2661000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2532000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2269000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1673000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1345000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1108000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1237000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1978000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1556800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1552100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1194600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>602300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>55100</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3957000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7100000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3386000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3118000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2939000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5712000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2753000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2688000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2464000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4625000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1553000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1606000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1473600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3230800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1307300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2232,243 +2327,261 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>954000</v>
+      </c>
+      <c r="E45" s="3">
         <v>916000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1111000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>743000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>717000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>629000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>667000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>687000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>528000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>964900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>764500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>704100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>711400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>557100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14713000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15963000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11026000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9903000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10035000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10683000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6870000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6802000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10151000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9584000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5946200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5811300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5404500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5996800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3001600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3146000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3404000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2983000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2800000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2797000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2655000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2378000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2371000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2200000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1941000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>670400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>657700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>639200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>567000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1106300</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5501000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5415000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5515000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5187000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5097000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2051000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1998000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1986000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1950000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1947000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1864900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1866600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1846400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1787500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1756700</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29754000</v>
+      </c>
+      <c r="E49" s="3">
         <v>29858000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>30009000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14924000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14648000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14926000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>15078000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14408000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8429000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8478800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8357500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8431600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8507900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8567700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7888700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2514,8 +2627,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2561,55 +2677,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>509000</v>
+      </c>
+      <c r="E52" s="3">
         <v>486000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>409000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>522000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>577000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>422000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>264000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>256000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>233000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>999400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>651100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>651600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>661000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>675500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>634500</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2655,55 +2777,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>53623000</v>
+      </c>
+      <c r="E54" s="3">
         <v>55126000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>49942000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33336000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33154000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>30737000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26588000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25823000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22963000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21984000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17490000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17418800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17058900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17584900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14387700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2721,8 +2849,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2740,290 +2869,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2916000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3356000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2763000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2271000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2050000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>165000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>160000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>201000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>134000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>146900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>120000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>148300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>128100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>227500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="3">
         <v>53000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>65000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>76000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>178000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>216000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>706000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>708000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>103000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1128000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1272000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1269400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1143200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>121700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9927000</v>
+      </c>
+      <c r="E59" s="3">
         <v>11436000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7646000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7848000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8260000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10874000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7156000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7560000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7658000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9838600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5824400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6108500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6354600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7657500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4815500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12843000</v>
+      </c>
+      <c r="E60" s="3">
         <v>14845000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10474000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10195000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10488000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11255000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8022000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8469000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7895000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10067000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7216400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7526200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7625900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7295500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4975500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2673000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3005000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3158000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3309000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3532000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3430000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3685000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3690000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3885000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>695000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1327000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1329900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1392300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2690000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2496200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3542000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3391000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3031000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2666000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2688000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>447000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>188000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>136000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>123000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>967000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>117200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>111400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>106300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>136500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3069,8 +3217,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3116,8 +3267,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3163,55 +3317,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19058000</v>
+      </c>
+      <c r="E66" s="3">
         <v>21241000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16663000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16170000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16708000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15132000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11895000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12295000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11903000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11608000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8660700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8967500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9124400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10084800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7581600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3229,8 +3389,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3276,8 +3437,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3323,8 +3487,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3370,8 +3537,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3417,55 +3587,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1960000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1861000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2109000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2218000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2127000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1735000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1373000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1269000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>969000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>635000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-405000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-456400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-474100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-464900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-413500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3511,8 +3687,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3558,8 +3737,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3605,55 +3787,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>34565000</v>
+      </c>
+      <c r="E76" s="3">
         <v>33885000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>33279000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17166000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16446000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15605000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14693000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13528000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11060000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10376000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8829400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8451300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7934500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7500100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6806000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3699,107 +3887,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-248000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-109000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>91000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>392000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>362000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>105000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>299000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>344000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>206000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>107000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>46000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-51400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3817,55 +4014,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>658000</v>
+      </c>
+      <c r="E83" s="3">
         <v>633000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>608000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>457000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>437000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>273000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>256000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>252000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>181000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>188000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>187600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>192300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>185100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>180800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3911,8 +4112,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3958,8 +4162,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4005,8 +4212,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4052,8 +4262,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4099,55 +4312,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1859000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1632000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>298000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>436000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1965000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1331000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>143000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>458000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1466000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1051400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>125600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>331000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1230000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>706100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4165,55 +4384,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-323000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-136000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-170000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-178000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-159000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-167000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-136000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-170000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-122000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-138000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-111000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-128400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-313600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-144000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4259,8 +4482,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4306,55 +4532,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-437000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1465000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>63000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-852000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-726000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-378000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-545000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4661000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>276000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-583900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-135300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-523600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-767700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-497800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-193800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4372,8 +4604,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4419,8 +4652,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4466,8 +4702,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4513,8 +4752,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4560,145 +4802,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E100" s="3">
         <v>125000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>15000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-183000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>207000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-386000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>182000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>589000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1625000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>19200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>134000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>117000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-49000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>260000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>81800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-15000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-18000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>11000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>12000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-15800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1627000</v>
+      </c>
+      <c r="E102" s="3">
         <v>277000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>358000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1441000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>564000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-214000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3603000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3379000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>471600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>122700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-75800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>418400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>460800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>30500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>CRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,233 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5151000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4865000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4851000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4513000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3997000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3737000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3603000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3392000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3281000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3006000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2865000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2701000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2577000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2397000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2294000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2144800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1311000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1254000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1220000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1134000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>967000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>914000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>946000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>889000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>849000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>767000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>738000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>714000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>670000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>651000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>626000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>585500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3840000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3611000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3631000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3379000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3030000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2823000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2657000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2503000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2432000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2239000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2127000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1987000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1907000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1746000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1668000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1559300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,58 +910,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1025000</v>
+        <v>898000</v>
       </c>
       <c r="E12" s="3">
-        <v>993000</v>
+        <v>859000</v>
       </c>
       <c r="F12" s="3">
-        <v>943000</v>
+        <v>831000</v>
       </c>
       <c r="G12" s="3">
-        <v>705000</v>
+        <v>774000</v>
       </c>
       <c r="H12" s="3">
-        <v>635000</v>
+        <v>607000</v>
       </c>
       <c r="I12" s="3">
+        <v>554000</v>
+      </c>
+      <c r="J12" s="3">
         <v>518000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>481000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>463000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>424000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>396000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>394000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>387000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>376000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>344200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>311500</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -998,40 +1014,43 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>166000</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>19000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5000</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1048,58 +1067,64 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E15" s="3">
         <v>112000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>110000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>109000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>65000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>68000</v>
       </c>
       <c r="I15" s="3">
         <v>68000</v>
       </c>
       <c r="J15" s="3">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="K15" s="3">
         <v>67000</v>
       </c>
       <c r="L15" s="3">
+        <v>67000</v>
+      </c>
+      <c r="M15" s="3">
         <v>30000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>30300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>30400</v>
-      </c>
-      <c r="O15" s="3">
-        <v>31400</v>
       </c>
       <c r="P15" s="3">
         <v>31400</v>
       </c>
       <c r="Q15" s="3">
+        <v>31400</v>
+      </c>
+      <c r="R15" s="3">
         <v>31600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4973000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5005000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4887000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4448000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3939000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3527000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3466000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3300000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3166000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2815000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2654000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2546000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2493000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2393000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2317900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2142300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-140000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-36000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>65000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>58000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>210000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>137000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>92000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>115000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>191000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>211000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>155000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>84000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-23900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,108 +1267,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>686000</v>
+      </c>
+      <c r="E20" s="3">
         <v>212000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>62000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>30000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>140000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>307000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>143000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>76000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>155000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>228000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>32000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>12000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>24800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1513000</v>
+      </c>
+      <c r="E21" s="3">
         <v>730000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>659000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>703000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>655000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>954000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>553000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>424000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>522000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>600000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>431000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>355000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>277000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>197000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>181600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>178700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1344,149 +1383,158 @@
         <v>25000</v>
       </c>
       <c r="E22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F22" s="3">
         <v>30000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>31000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>34000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>35000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>41000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>40000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>39000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>22000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>21000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>22000</v>
       </c>
       <c r="P22" s="3">
         <v>22000</v>
       </c>
       <c r="Q22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="R22" s="3">
         <v>24300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>839000</v>
+      </c>
+      <c r="E23" s="3">
         <v>47000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>64000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>164000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>482000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>239000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>128000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>231000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>385000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>221000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>146000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>63000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-23500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-52000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>238000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>173000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>73000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>90000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-166000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-68000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>41000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-111000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>39000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>625000</v>
+      </c>
+      <c r="E26" s="3">
         <v>99000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-242000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-109000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>91000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>392000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>405000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>105000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>299000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>344000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>332000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>107000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>46000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-51400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>625000</v>
+      </c>
+      <c r="E27" s="3">
         <v>99000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-242000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-109000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>91000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>392000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>405000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>105000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>299000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>344000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>332000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>107000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>46000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-51400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,19 +1742,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-6000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1705,11 +1765,11 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3">
         <v>-43000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1717,11 +1777,11 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3">
         <v>-126000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -1735,8 +1795,11 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-686000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-212000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-62000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-30000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-140000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-307000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-143000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-76000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-155000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-228000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-32000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-12000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-24800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2625000</v>
+      </c>
+      <c r="E33" s="3">
         <v>99000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-248000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-109000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>91000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>392000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>362000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>105000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>299000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>344000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>206000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>107000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>46000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-51400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2625000</v>
+      </c>
+      <c r="E35" s="3">
         <v>99000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-248000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-109000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>91000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>392000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>362000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>105000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>299000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>344000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>206000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>107000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>46000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-51400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,158 +2215,168 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4052000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5772000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4145000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3868000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3510000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4110000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2669000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2105000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2319000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5922000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2543000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2071800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1949100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2024900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1606500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1145700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5231000</v>
+      </c>
+      <c r="E42" s="3">
         <v>4030000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3802000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2661000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2532000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2269000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1673000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1345000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1108000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1237000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1978000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1556800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1552100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1194600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>602300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>55100</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4393000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3957000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7100000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3386000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3118000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2939000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5712000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2753000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2688000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2464000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4625000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1553000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1606000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1473600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3230800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1307300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2330,258 +2425,276 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1170000</v>
+      </c>
+      <c r="E45" s="3">
         <v>954000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>916000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1111000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>743000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>717000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>629000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>667000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>687000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>528000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>964900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>764500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>704100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>711400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>557100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14846000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14713000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15963000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11026000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9903000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10035000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10683000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6870000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6802000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10151000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9584000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5946200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5811300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5404500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5996800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3001600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3931000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3146000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3404000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2983000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2800000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2797000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2655000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2378000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2371000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2200000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1941000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>670400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>657700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>639200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>567000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1106300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5513000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5501000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5415000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5515000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5187000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5097000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2051000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1998000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1986000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1950000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1947000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1864900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1866600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1846400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1787500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1756700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>30977000</v>
+      </c>
+      <c r="E49" s="3">
         <v>29754000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>29858000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>30009000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14924000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14648000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14926000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>15078000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14408000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8429000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8478800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8357500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8431600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8507900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8567700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7888700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2513000</v>
+      </c>
+      <c r="E52" s="3">
         <v>509000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>486000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>409000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>522000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>577000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>422000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>264000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>256000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>233000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>999400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>651100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>651600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>661000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>675500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>634500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>57780000</v>
+      </c>
+      <c r="E54" s="3">
         <v>53623000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>55126000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>49942000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33336000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33154000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>30737000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26588000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25823000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22963000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21984000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17490000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17418800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17058900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17584900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14387700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,208 +2999,221 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3485000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2916000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3356000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2763000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2271000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2050000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>165000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>160000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>201000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>134000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>146900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>120000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>148300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>128100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>227500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="3">
         <v>53000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>65000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>76000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>178000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>216000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>706000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>708000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>103000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1128000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1272000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1269400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1143200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>121700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9478000</v>
+      </c>
+      <c r="E59" s="3">
         <v>9927000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11436000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7646000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7848000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8260000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10874000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7156000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7560000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7658000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9838600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5824400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6108500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6354600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7657500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4815500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12963000</v>
+      </c>
+      <c r="E60" s="3">
         <v>12843000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14845000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10474000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10195000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10488000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11255000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8022000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8469000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7895000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10067000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7216400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7526200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7625900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7295500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4975500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3079,99 +3221,105 @@
         <v>2673000</v>
       </c>
       <c r="E61" s="3">
+        <v>2673000</v>
+      </c>
+      <c r="F61" s="3">
         <v>3005000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3158000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3309000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3532000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3430000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3685000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3690000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3885000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>695000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1327000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1329900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1392300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2690000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2496200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3704000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3542000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3391000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3031000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2666000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2688000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>447000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>188000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>136000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>123000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>967000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>117200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>111400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>106300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>136500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19340000</v>
+      </c>
+      <c r="E66" s="3">
         <v>19058000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21241000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16663000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16170000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16708000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15132000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11895000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12295000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11903000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11608000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8660700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8967500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9124400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10084800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7581600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4585000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1960000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1861000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2109000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2218000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2127000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1735000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1373000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1269000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>969000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>635000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-405000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-456400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-474100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-464900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-413500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38440000</v>
+      </c>
+      <c r="E76" s="3">
         <v>34565000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>33885000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>33279000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17166000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16446000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15605000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14693000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13528000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11060000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10376000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8829400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8451300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7934500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7500100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6806000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2625000</v>
+      </c>
+      <c r="E81" s="3">
         <v>99000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-248000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-109000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>91000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>392000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>362000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>105000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>299000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>344000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>206000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>107000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>46000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-51400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>649000</v>
+      </c>
+      <c r="E83" s="3">
         <v>658000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>633000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>608000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>457000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>437000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>273000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>256000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>252000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>181000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>188000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>187600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>192300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>185100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>180800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>429000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1859000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1632000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>298000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>436000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1965000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1331000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>143000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>458000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1466000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1051400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>125600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>331000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1230000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>706100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-114000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-323000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-136000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-170000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-178000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-159000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-167000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-136000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-170000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-122000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-138000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-111000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-128400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-313600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-144000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2593000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-437000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1465000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>63000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-852000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-726000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-378000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-545000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4661000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>276000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-583900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-135300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-523600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-767700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-497800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-193800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,8 +4837,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4655,8 +4888,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5047,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>441000</v>
+      </c>
+      <c r="E100" s="3">
         <v>209000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>125000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>15000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-183000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>207000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-386000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>182000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>589000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1625000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>19200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>134000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>117000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-49000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>260000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>81800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-15000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-18000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>11000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>12000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-15800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1720000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1627000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>277000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>358000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1441000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>564000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-214000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3603000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3379000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>471600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>122700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-75800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>418400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>460800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>30500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>CRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,257 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5817000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5419000</v>
+      </c>
+      <c r="F8" s="3">
         <v>5151000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4865000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4851000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4513000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3997000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3737000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3603000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3392000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3281000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3006000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2865000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2701000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2577000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2397000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2294000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2144800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1479000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1394000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1311000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1254000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1220000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1134000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>967000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>914000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>946000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>889000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>849000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>767000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>738000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>714000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>670000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>651000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>626000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>585500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4338000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4025000</v>
+      </c>
+      <c r="F10" s="3">
         <v>3840000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3611000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3631000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>3379000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3030000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2823000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2657000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2503000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2432000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2239000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2127000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1987000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1907000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1746000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1668000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1559300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,61 +935,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>939000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>902000</v>
+      </c>
+      <c r="F12" s="3">
         <v>898000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>859000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>831000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>774000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>607000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>554000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>518000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>481000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>463000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>424000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>396000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>394000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>387000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>376000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>344200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>311500</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1017,46 +1049,52 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>166000</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>19000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>5000</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1070,61 +1108,73 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>114000</v>
+      </c>
+      <c r="F15" s="3">
         <v>118000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>112000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>110000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>109000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>65000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>68000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>68000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>67000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>67000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>30000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>30300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>30400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>31400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>31400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>31600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1191,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5624000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5195000</v>
+      </c>
+      <c r="F17" s="3">
         <v>4973000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5005000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4887000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4448000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3939000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3527000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3466000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3300000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3166000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2815000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2654000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2546000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2493000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2393000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2317900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2142300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>224000</v>
+      </c>
+      <c r="F18" s="3">
         <v>178000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-140000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-36000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>65000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>58000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>210000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>137000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>92000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>115000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>191000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>211000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>155000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>84000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>4000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-23900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,273 +1332,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>283000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1051000</v>
+      </c>
+      <c r="F20" s="3">
         <v>686000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>212000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>62000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>30000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>140000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>307000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>143000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>76000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>155000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>228000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>32000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>12000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>8000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>24800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1345000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1945000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1513000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>730000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>659000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>703000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>655000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>954000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>553000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>424000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>522000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>600000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>431000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>355000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>277000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>197000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>181600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>178700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>25000</v>
+        <v>51000</v>
       </c>
       <c r="E22" s="3">
         <v>25000</v>
       </c>
       <c r="F22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H22" s="3">
         <v>30000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>31000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>34000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>35000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>41000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>40000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>39000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>34000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>22000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>21000</v>
       </c>
       <c r="P22" s="3">
         <v>22000</v>
       </c>
       <c r="Q22" s="3">
+        <v>21000</v>
+      </c>
+      <c r="R22" s="3">
         <v>22000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="T22" s="3">
         <v>24300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>425000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1250000</v>
+      </c>
+      <c r="F23" s="3">
         <v>839000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>47000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>64000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>164000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>482000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>239000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>128000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>231000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>385000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>221000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>146000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>63000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-10000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-23500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>214000</v>
+        <v>135000</v>
       </c>
       <c r="E24" s="3">
+        <v>169000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-1786000</v>
+      </c>
+      <c r="G24" s="3">
         <v>-52000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>238000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>173000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>73000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>90000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-166000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>23000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-68000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>41000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-111000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>39000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>17000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-11000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>28000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1682,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>625000</v>
+        <v>290000</v>
       </c>
       <c r="E26" s="3">
+        <v>1081000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2625000</v>
+      </c>
+      <c r="G26" s="3">
         <v>99000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-242000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-109000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>91000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>392000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>405000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>105000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>299000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>344000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>332000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>107000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>46000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-51400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>625000</v>
+        <v>290000</v>
       </c>
       <c r="E27" s="3">
+        <v>1081000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2625000</v>
+      </c>
+      <c r="G27" s="3">
         <v>99000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-242000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-109000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>91000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>392000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>405000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>105000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>299000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>344000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>332000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>107000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>46000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-51400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,49 +1859,55 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>2000000</v>
+        <v>-23000</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>-6000</v>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
+      <c r="H29" s="3">
+        <v>-6000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
-        <v>-43000</v>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
+      <c r="L29" s="3">
+        <v>-43000</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>-126000</v>
+      <c r="N29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
+      <c r="P29" s="3">
+        <v>-126000</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -1798,8 +1918,14 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1977,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +2036,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-283000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1051000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-686000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-212000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-62000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-30000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-140000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-307000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-143000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-76000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-155000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-228000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-32000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-12000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-8000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-24800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1081000</v>
+      </c>
+      <c r="F33" s="3">
         <v>2625000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>99000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-248000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-109000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>91000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>392000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>362000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>105000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>299000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>344000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>206000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>107000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>46000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-51400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2213,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1081000</v>
+      </c>
+      <c r="F35" s="3">
         <v>2625000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>99000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-248000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-109000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>91000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>392000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>362000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>105000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>299000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>344000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>206000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>107000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>46000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-51400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2363,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,167 +2386,187 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6195000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3724000</v>
+      </c>
+      <c r="F41" s="3">
         <v>4052000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5772000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4145000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3868000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3510000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4110000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2669000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2105000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2319000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5922000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2543000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2071800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1949100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2024900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1606500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1145700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5771000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5768000</v>
+      </c>
+      <c r="F42" s="3">
         <v>5231000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>4030000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>3802000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>2661000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>2532000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>2269000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1673000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1345000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1108000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1237000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1978000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1556800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1552100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1194600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>602300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>55100</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8932000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4333000</v>
+      </c>
+      <c r="F43" s="3">
         <v>4393000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3957000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>7100000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3386000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3118000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2939000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5712000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2753000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2688000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2464000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>4625000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1553000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1606000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1473600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3230800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1307300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2428,273 +2618,309 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>991000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1121000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1170000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>954000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>916000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1111000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>743000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>717000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>629000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>667000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>687000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>528000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>964900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>764500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>704100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>711400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>557100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21889000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>14946000</v>
+      </c>
+      <c r="F46" s="3">
         <v>14846000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>14713000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>15963000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>11026000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>9903000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>10035000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10683000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6870000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6802000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>10151000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>9584000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5946200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5811300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5404500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>5996800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3001600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5666000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>5443000</v>
+      </c>
+      <c r="F47" s="3">
         <v>3931000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>3146000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>3404000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2983000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2800000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>2797000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2655000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2378000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2371000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2200000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1941000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>670400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>657700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>639200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>567000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1106300</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5663000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5526000</v>
+      </c>
+      <c r="F48" s="3">
         <v>5513000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5501000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5415000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5515000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5187000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5097000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2051000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1998000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1986000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1950000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1947000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1864900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1866600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1846400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1787500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1756700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>30432000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>30711000</v>
+      </c>
+      <c r="F49" s="3">
         <v>30977000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>29754000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>29858000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>30009000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>14924000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>14648000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>14926000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>15078000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>14408000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>8429000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>8478800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>8357500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>8431600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>8507900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>8567700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>7888700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2972,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +3031,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2651000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2510000</v>
+      </c>
+      <c r="F52" s="3">
         <v>2513000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>509000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>486000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>409000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>522000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>577000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>422000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>264000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>256000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>233000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>999400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>651100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>651600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>661000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>675500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>634500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3149,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66301000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>59136000</v>
+      </c>
+      <c r="F54" s="3">
         <v>57780000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>53623000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>55126000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>49942000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>33336000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>33154000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>30737000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>26588000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>25823000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>22963000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>21984000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>17490000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>17418800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>17058900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>17584900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>14387700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3235,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,61 +3258,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4355000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3546000</v>
+      </c>
+      <c r="F57" s="3">
         <v>3485000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2916000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3356000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2763000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2271000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2050000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>165000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>160000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>201000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>134000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>146900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>120000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>148300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>128100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>227500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3064,156 +3330,174 @@
       <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="3">
         <v>53000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>65000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>76000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>178000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>216000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>706000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>708000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>103000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1128000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1272000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1269400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1143200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>121700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13373000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8688000</v>
+      </c>
+      <c r="F59" s="3">
         <v>9478000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>9927000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>11436000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7646000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7848000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>8260000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>10874000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7156000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>7560000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>7658000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>9838600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5824400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>6108500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>6354600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>7657500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4815500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17728000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12234000</v>
+      </c>
+      <c r="F60" s="3">
         <v>12963000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>12843000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>14845000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>10474000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>10195000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>10488000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11255000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8022000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8469000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7895000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>10067000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7216400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7526200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7625900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>7295500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4975500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3221,105 +3505,117 @@
         <v>2673000</v>
       </c>
       <c r="E61" s="3">
+        <v>2672000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2673000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
+        <v>2673000</v>
+      </c>
+      <c r="H61" s="3">
         <v>3005000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3158000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3309000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3532000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3430000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3685000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3690000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3885000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>695000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1327000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1329900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1392300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2690000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2496200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4407000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3920000</v>
+      </c>
+      <c r="F62" s="3">
         <v>3704000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3542000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3391000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3031000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2666000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2688000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>447000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>188000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>136000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>123000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>967000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>117200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>111400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>106300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>136500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3667,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3726,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3785,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24808000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>18826000</v>
+      </c>
+      <c r="F66" s="3">
         <v>19340000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>19058000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>21241000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>16663000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>16170000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>16708000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>15132000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11895000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12295000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11903000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11608000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8660700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8967500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>9124400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>10084800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7581600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3871,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3926,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3985,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +4044,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +4103,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5933000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>5666000</v>
+      </c>
+      <c r="F72" s="3">
         <v>4585000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1960000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1861000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2109000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2218000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2127000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1735000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1373000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1269000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>969000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>635000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-405000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-456400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-474100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-464900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-413500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4221,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4280,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4339,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41493000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>40310000</v>
+      </c>
+      <c r="F76" s="3">
         <v>38440000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>34565000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>33885000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>33279000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>17166000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>16446000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>15605000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>14693000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>13528000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11060000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>10376000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>8829400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8451300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>7934500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>7500100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>6806000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4457,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1081000</v>
+      </c>
+      <c r="F81" s="3">
         <v>2625000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>99000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-248000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-109000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>91000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>392000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>362000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>105000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>299000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>344000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>206000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>107000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>46000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-51400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4607,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>869000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>670000</v>
+      </c>
+      <c r="F83" s="3">
         <v>649000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>658000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>633000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>608000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>457000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>437000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>273000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>256000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>252000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>181000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>188000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>187600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>192300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>185100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>180800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4721,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4780,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4839,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4898,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4957,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2174000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>339000</v>
+      </c>
+      <c r="F89" s="3">
         <v>429000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1859000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1632000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>298000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>436000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1965000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1331000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>143000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>458000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1466000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1051400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>125600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>331000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1230000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>706100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +5043,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-114000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-323000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-136000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-170000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-178000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-159000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-167000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-136000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-170000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-122000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-138000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-111000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-128400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-313600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-144000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +5157,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +5216,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1035000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2593000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-437000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1465000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>63000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-852000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-726000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-378000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-545000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-4661000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>276000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-583900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-135300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-523600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-767700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-497800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-193800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,8 +5302,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4891,8 +5357,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5416,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5475,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5534,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>368000</v>
+      </c>
+      <c r="F100" s="3">
         <v>441000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>209000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>125000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>15000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-183000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>207000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-386000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>182000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>589000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1625000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>19200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>134000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>117000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-49000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>260000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>81800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-15000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-18000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>11000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>12000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-15800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>6100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-7500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2471000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-328000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1720000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1627000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>277000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>358000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-600000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1441000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>564000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-214000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3603000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3379000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>471600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>122700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-75800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>418400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>460800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>30500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>CRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5963000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5817000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5419000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5151000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4865000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4851000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4513000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3997000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3737000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3603000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3392000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3281000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3006000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2865000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2701000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2577000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2397000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2294000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2144800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1555000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1479000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1394000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1311000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1254000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1220000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1134000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>967000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>914000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>946000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>889000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>849000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>767000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>738000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>714000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>670000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>651000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>626000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>585500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4408000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4338000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4025000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3840000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3611000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3631000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3379000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3030000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2823000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2657000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2503000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2432000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2239000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2127000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1987000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1907000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1746000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1668000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1559300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,67 +949,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>951000</v>
+      </c>
+      <c r="E12" s="3">
         <v>939000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>902000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>898000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>859000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>831000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>774000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>607000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>554000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>518000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>481000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>463000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>424000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>396000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>394000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>387000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>376000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>344200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>311500</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,13 +1071,16 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1069,35 +1088,35 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>166000</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>19000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5000</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1114,67 +1133,73 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E15" s="3">
         <v>115000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>114000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>118000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>112000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>110000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>109000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>65000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>68000</v>
       </c>
       <c r="L15" s="3">
         <v>68000</v>
       </c>
       <c r="M15" s="3">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="N15" s="3">
         <v>67000</v>
       </c>
       <c r="O15" s="3">
+        <v>67000</v>
+      </c>
+      <c r="P15" s="3">
         <v>30000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>30300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>30400</v>
-      </c>
-      <c r="R15" s="3">
-        <v>31400</v>
       </c>
       <c r="S15" s="3">
         <v>31400</v>
       </c>
       <c r="T15" s="3">
+        <v>31400</v>
+      </c>
+      <c r="U15" s="3">
         <v>31600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5623000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5624000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5195000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4973000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5005000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4887000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4448000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3939000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3527000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3466000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3300000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3166000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2815000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2654000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2546000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2493000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2393000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2317900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2142300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E18" s="3">
         <v>193000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>224000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>178000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-140000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-36000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>65000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>58000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>210000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>137000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>92000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>115000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>191000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>211000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>155000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>84000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-23900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,134 +1366,141 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E20" s="3">
         <v>283000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1051000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>686000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>212000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>62000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>30000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>140000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>307000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>143000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>76000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>155000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>228000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>32000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>12000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>24800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1322000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1345000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1945000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1513000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>730000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>659000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>703000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>655000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>954000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>553000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>424000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>522000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>600000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>431000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>355000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>277000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>197000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>181600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>178700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E22" s="3">
         <v>51000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>25000</v>
       </c>
       <c r="F22" s="3">
         <v>25000</v>
@@ -1470,108 +1509,114 @@
         <v>25000</v>
       </c>
       <c r="H22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="I22" s="3">
         <v>30000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>31000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>34000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>35000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>41000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>40000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>39000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>34000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>22000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>21000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>22000</v>
       </c>
       <c r="S22" s="3">
         <v>22000</v>
       </c>
       <c r="T22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="U22" s="3">
         <v>24300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>604000</v>
+      </c>
+      <c r="E23" s="3">
         <v>425000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1250000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>839000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>47000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>64000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>164000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>482000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>239000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>128000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>231000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>385000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>221000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>146000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>63000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-23500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1579,58 +1624,61 @@
         <v>135000</v>
       </c>
       <c r="E24" s="3">
+        <v>135000</v>
+      </c>
+      <c r="F24" s="3">
         <v>169000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1786000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-52000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>238000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>173000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>73000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>90000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-166000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-68000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>41000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-111000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>39000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>17000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-11000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>469000</v>
+      </c>
+      <c r="E26" s="3">
         <v>290000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1081000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2625000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>99000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-242000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-109000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>91000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>392000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>405000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>105000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>299000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>344000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>332000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>107000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>46000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-51400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>469000</v>
+      </c>
+      <c r="E27" s="3">
         <v>290000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1081000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2625000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>99000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-242000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-109000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>91000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>392000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>405000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>105000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>299000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>344000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>332000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>107000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>46000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-51400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,16 +1922,19 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3">
         <v>-23000</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1882,11 +1942,11 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3">
         <v>-6000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1894,11 +1954,11 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3">
         <v>-43000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1906,11 +1966,11 @@
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-126000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -1924,8 +1984,11 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-297000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-283000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-686000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-212000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-62000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-30000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-140000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-307000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-143000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-76000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-155000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-228000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-12000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-24800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>469000</v>
+      </c>
+      <c r="E33" s="3">
         <v>267000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1081000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2625000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>99000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-248000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-109000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>91000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>392000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>362000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>105000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>299000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>344000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>206000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>107000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>46000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-51400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>469000</v>
+      </c>
+      <c r="E35" s="3">
         <v>267000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1081000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2625000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>99000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-248000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-109000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>91000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>392000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>362000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>105000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>299000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>344000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>206000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>107000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>46000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-51400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,185 +2473,195 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8544000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6195000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3724000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4052000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5772000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4145000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3868000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3510000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4110000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2669000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2105000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2319000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5922000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2543000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2071800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1949100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2024900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1606500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1145700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6479000</v>
+      </c>
+      <c r="E42" s="3">
         <v>5771000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5768000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5231000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4030000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3802000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2661000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2532000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2269000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1673000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1345000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1108000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1237000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1978000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1556800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1552100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1194600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>602300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>55100</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4340000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8932000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4333000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4393000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3957000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7100000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3386000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3118000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2939000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5712000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2753000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2688000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2464000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4625000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1553000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1606000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1473600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3230800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1307300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2624,303 +2719,321 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1081000</v>
+      </c>
+      <c r="E45" s="3">
         <v>991000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1121000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1170000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>954000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>916000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1111000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>743000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>717000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>629000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>667000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>687000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>528000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>964900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>764500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>704100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>711400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>557100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20444000</v>
+      </c>
+      <c r="E46" s="3">
         <v>21889000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14946000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14846000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14713000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15963000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11026000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9903000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10035000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10683000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6870000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6802000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10151000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9584000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5946200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5811300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5404500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5996800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3001600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5680000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5666000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5443000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3931000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3146000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3404000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2983000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2800000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2797000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2655000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2378000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2371000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2200000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1941000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>670400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>657700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>639200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>567000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1106300</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5555000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5663000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5526000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5513000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5501000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5415000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5515000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5187000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5097000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2051000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1998000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1986000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1950000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1947000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1864900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1866600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1846400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1787500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1756700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>30565000</v>
+      </c>
+      <c r="E49" s="3">
         <v>30432000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>30711000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>30977000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29754000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29858000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>30009000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14924000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14648000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14926000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15078000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14408000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8429000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8478800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8357500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8431600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8507900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8567700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7888700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2641000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2651000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2510000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2513000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>509000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>486000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>409000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>522000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>577000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>422000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>264000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>256000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>233000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>999400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>651100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>651600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>661000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>675500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>634500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64885000</v>
+      </c>
+      <c r="E54" s="3">
         <v>66301000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>59136000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>57780000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>53623000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>55126000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>49942000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>33336000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33154000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30737000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26588000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25823000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22963000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21984000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17490000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17418800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17058900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17584900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>14387700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,67 +3389,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3439000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4355000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3546000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3485000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2916000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3356000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2763000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2271000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2050000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>165000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>160000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>201000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>134000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>146900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>120000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>148300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>128100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>227500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3336,286 +3469,301 @@
       <c r="G58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="3">
         <v>53000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>65000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>76000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>178000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>216000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>706000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>708000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>103000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1128000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1272000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1269400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1143200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>121700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11884000</v>
+      </c>
+      <c r="E59" s="3">
         <v>13373000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8688000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9478000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9927000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11436000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7646000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7848000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8260000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10874000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7156000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7560000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7658000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9838600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5824400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6108500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6354600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7657500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4815500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15323000</v>
+      </c>
+      <c r="E60" s="3">
         <v>17728000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12234000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12963000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12843000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14845000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10474000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10195000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10488000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11255000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8022000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8469000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7895000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10067000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7216400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7526200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7625900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7295500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4975500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2672000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2673000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2672000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>2673000</v>
       </c>
       <c r="G61" s="3">
         <v>2673000</v>
       </c>
       <c r="H61" s="3">
+        <v>2673000</v>
+      </c>
+      <c r="I61" s="3">
         <v>3005000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3158000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3309000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3532000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3430000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3685000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3690000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3885000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>695000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1327000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1329900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1392300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2690000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2496200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4323000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4407000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3920000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3704000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3542000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3391000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3031000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2666000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2688000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>447000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>188000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>136000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>123000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>967000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>117200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>111400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>106300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>136500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22318000</v>
+      </c>
+      <c r="E66" s="3">
         <v>24808000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18826000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19340000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19058000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21241000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16663000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16170000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16708000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15132000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11895000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12295000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11903000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11608000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8660700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8967500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9124400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10084800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7581600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6402000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5933000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5666000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4585000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1960000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1861000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2109000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2218000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2127000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1735000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1373000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1269000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>969000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>635000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-405000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-456400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-474100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-464900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-413500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42567000</v>
+      </c>
+      <c r="E76" s="3">
         <v>41493000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>40310000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38440000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>34565000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>33885000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33279000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17166000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16446000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15605000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14693000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13528000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11060000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10376000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8829400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8451300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7934500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7500100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6806000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>469000</v>
+      </c>
+      <c r="E81" s="3">
         <v>267000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1081000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2625000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>99000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-248000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-109000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>91000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>392000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>362000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>105000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>299000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>344000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>206000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>107000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>46000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-51400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>685000</v>
+      </c>
+      <c r="E83" s="3">
         <v>869000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>670000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>649000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>658000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>633000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>608000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>457000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>437000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>273000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>256000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>252000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>181000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>188000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>187600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>192300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>185100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>180800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3228000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2174000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>339000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>429000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1859000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1632000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>298000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>436000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1965000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1331000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>143000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>458000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1466000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1051400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>125600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>331000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1230000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>706100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-149000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-124000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-114000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-323000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-136000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-170000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-178000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-159000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-167000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-136000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-170000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-122000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-138000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-111000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-128400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-313600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-144000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1047000</v>
+      </c>
+      <c r="E94" s="3">
         <v>94000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2593000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-437000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1465000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>63000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-852000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-726000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-378000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-545000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4661000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>276000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-583900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-135300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-523600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-767700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-497800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-193800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,8 +5536,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5363,8 +5596,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,181 +5782,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E100" s="3">
         <v>176000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>368000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>441000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>209000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>125000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>15000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-183000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>207000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-386000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>182000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>589000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1625000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>19200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>134000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>117000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-49000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>260000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>81800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>27000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-15000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-18000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>11000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>12000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2349000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2471000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-328000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1720000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1627000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>277000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>358000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1441000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>564000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-214000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3603000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3379000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>471600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>122700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-75800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>418400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>460800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>30500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>CRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6340000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5963000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5817000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5419000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5151000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4865000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4851000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4513000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3997000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3737000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3603000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3392000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3281000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3006000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2865000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2701000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2577000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2397000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2294000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2144800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1613000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1555000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1479000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1394000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1311000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1254000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1220000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1134000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>967000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>914000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>946000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>889000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>849000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>767000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>738000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>714000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>670000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>651000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>626000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>585500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4727000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4408000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4338000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4025000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3840000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3611000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3631000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3379000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3030000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2823000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2657000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2503000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2432000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2239000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2127000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1987000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1907000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1746000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1668000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1559300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,70 +963,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1020000</v>
+      </c>
+      <c r="E12" s="3">
         <v>951000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>939000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>902000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>898000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>859000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>831000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>774000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>607000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>554000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>518000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>481000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>463000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>424000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>396000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>394000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>387000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>376000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>344200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>311500</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1074,52 +1091,55 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="3">
         <v>14000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>166000</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>19000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5000</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1136,70 +1156,76 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E15" s="3">
         <v>120000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>115000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>114000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>118000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>112000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>110000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>109000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>65000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>68000</v>
       </c>
       <c r="M15" s="3">
         <v>68000</v>
       </c>
       <c r="N15" s="3">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="O15" s="3">
         <v>67000</v>
       </c>
       <c r="P15" s="3">
+        <v>67000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>30000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>30300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>30400</v>
-      </c>
-      <c r="S15" s="3">
-        <v>31400</v>
       </c>
       <c r="T15" s="3">
         <v>31400</v>
       </c>
       <c r="U15" s="3">
+        <v>31400</v>
+      </c>
+      <c r="V15" s="3">
         <v>31600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1245,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6028000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5623000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5624000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5195000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4973000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5005000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4887000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4448000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3939000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3527000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3466000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3300000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3166000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2815000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2654000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2546000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2493000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2393000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2317900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2142300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E18" s="3">
         <v>340000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>193000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>224000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>178000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-140000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-36000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>65000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>58000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>210000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>137000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>92000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>115000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>191000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>211000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>155000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>84000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-23900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,143 +1400,150 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E20" s="3">
         <v>297000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>283000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1051000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>686000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>212000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>62000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>30000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>140000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>307000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>143000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>76000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>155000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>228000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>32000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>12000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>24800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1322000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1345000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1945000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1513000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>730000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>659000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>703000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>655000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>954000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>553000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>424000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>522000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>600000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>431000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>355000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>277000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>197000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>181600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>178700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E22" s="3">
         <v>33000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>51000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>25000</v>
       </c>
       <c r="G22" s="3">
         <v>25000</v>
@@ -1512,173 +1552,182 @@
         <v>25000</v>
       </c>
       <c r="I22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J22" s="3">
         <v>30000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>31000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>35000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>41000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>40000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>39000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>34000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>22000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>21000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>22000</v>
       </c>
       <c r="T22" s="3">
         <v>22000</v>
       </c>
       <c r="U22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="V22" s="3">
         <v>24300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>826000</v>
+      </c>
+      <c r="E23" s="3">
         <v>604000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>425000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1250000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>839000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>47000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>64000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>164000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>482000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>239000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>128000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>231000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>385000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>221000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>146000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>63000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-10000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-23500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>135000</v>
+        <v>291000</v>
       </c>
       <c r="E24" s="3">
         <v>135000</v>
       </c>
       <c r="F24" s="3">
+        <v>135000</v>
+      </c>
+      <c r="G24" s="3">
         <v>169000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1786000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-52000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>238000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>173000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>73000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>90000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-166000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-68000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>41000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-111000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>39000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>17000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-11000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>28000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1788,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>535000</v>
+      </c>
+      <c r="E26" s="3">
         <v>469000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>290000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1081000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2625000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>99000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-242000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-109000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>91000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>392000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>405000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>105000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>299000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>344000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>332000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>107000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>46000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-51400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>535000</v>
+      </c>
+      <c r="E27" s="3">
         <v>469000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>290000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1081000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2625000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>99000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-242000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-109000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>91000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>392000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>405000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>105000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>299000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>344000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>332000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>107000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>46000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-51400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,19 +1983,22 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
         <v>-23000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1945,11 +2006,11 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3">
         <v>-6000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1957,11 +2018,11 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3">
         <v>-43000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -1969,11 +2030,11 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3">
         <v>-126000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -1987,8 +2048,11 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2113,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2178,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-554000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-297000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-283000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-686000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-212000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-62000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-30000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-140000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-307000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-143000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-76000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-155000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-228000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-32000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-12000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-24800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>535000</v>
+      </c>
+      <c r="E33" s="3">
         <v>469000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>267000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1081000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2625000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>99000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-248000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-109000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>91000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>392000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>362000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>105000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>299000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>344000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>206000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>107000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>46000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-51400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2373,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>535000</v>
+      </c>
+      <c r="E35" s="3">
         <v>469000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>267000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1081000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2625000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>99000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-248000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-109000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>91000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>392000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>362000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>105000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>299000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>344000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>206000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>107000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>46000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-51400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2535,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,194 +2560,204 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6299000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8544000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6195000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3724000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4052000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5772000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4145000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3868000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3510000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4110000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2669000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2105000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2319000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5922000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2543000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2071800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1949100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2024900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1606500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1145700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3351000</v>
+      </c>
+      <c r="E42" s="3">
         <v>6479000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5771000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5768000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5231000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>4030000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3802000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2661000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2532000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2269000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1673000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1345000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1108000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1237000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1978000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1556800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1552100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1194600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>602300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>55100</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5285000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4340000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8932000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4333000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4393000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3957000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7100000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3386000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3118000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2939000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5712000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2753000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2688000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2464000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4625000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1553000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1606000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1473600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3230800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1307300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2722,318 +2818,336 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1321000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1081000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>991000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1121000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1170000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>954000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>916000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1111000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>743000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>717000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>629000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>667000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>687000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>528000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>964900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>764500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>704100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>711400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>557100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16256000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20444000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21889000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14946000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14846000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14713000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15963000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11026000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9903000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10035000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10683000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6870000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6802000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10151000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9584000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5946200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5811300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5404500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5996800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3001600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5925000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5680000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5666000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5443000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3931000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3146000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3404000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2983000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2800000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2797000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2655000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2378000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2371000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2200000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1941000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>670400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>657700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>639200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>567000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1106300</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5834000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5555000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5663000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5526000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5513000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5501000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5415000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5515000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5187000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5097000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2051000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1998000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1986000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1950000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1947000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1864900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1866600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1846400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1787500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1756700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>57849000</v>
+      </c>
+      <c r="E49" s="3">
         <v>30565000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>30432000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>30711000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>30977000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29754000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29858000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>30009000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14924000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14648000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14926000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15078000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14408000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8429000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8478800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8357500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8431600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8507900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8567700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7888700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3208,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3273,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2794000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2641000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2651000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2510000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2513000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>509000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>486000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>409000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>522000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>577000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>422000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>264000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>256000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>233000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>999400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>651100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>651600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>661000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>675500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>634500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3403,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>88658000</v>
+      </c>
+      <c r="E54" s="3">
         <v>64885000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>66301000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>59136000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>57780000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>53623000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>55126000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>49942000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33336000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33154000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30737000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26588000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25823000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22963000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>21984000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17490000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17418800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17058900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17584900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>14387700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3495,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,75 +3520,79 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4274000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3439000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4355000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3546000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3485000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2916000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3356000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2763000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2271000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2050000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>165000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>160000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>201000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>134000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>146900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>120000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>148300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>128100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>227500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>10</v>
+      <c r="D58" s="3">
+        <v>1339000</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>10</v>
@@ -3472,298 +3606,313 @@
       <c r="H58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="3">
         <v>53000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>65000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>76000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>178000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>216000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>706000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>708000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>103000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1128000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1272000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1269400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1143200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>121700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11780000</v>
+      </c>
+      <c r="E59" s="3">
         <v>11884000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13373000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8688000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9478000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9927000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11436000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7646000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7848000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8260000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10874000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7156000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7560000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7658000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9838600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5824400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6108500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6354600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7657500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4815500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17393000</v>
+      </c>
+      <c r="E60" s="3">
         <v>15323000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17728000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12234000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12963000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12843000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14845000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10474000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10195000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10488000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11255000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8022000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8469000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7895000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10067000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7216400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7526200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7625900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7295500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4975500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10589000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2672000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2673000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2672000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>2673000</v>
       </c>
       <c r="H61" s="3">
         <v>2673000</v>
       </c>
       <c r="I61" s="3">
+        <v>2673000</v>
+      </c>
+      <c r="J61" s="3">
         <v>3005000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3158000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3309000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3532000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3430000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3685000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3690000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3885000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>695000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1327000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1329900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1392300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2690000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2496200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5156000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4323000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4407000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3920000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3704000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3542000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3391000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3031000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2666000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2688000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>447000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>188000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>136000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>123000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>967000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>117200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>111400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>106300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>136500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3973,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4038,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4103,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>33138000</v>
+      </c>
+      <c r="E66" s="3">
         <v>22318000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24808000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18826000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19340000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19058000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21241000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16663000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16170000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16708000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15132000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11895000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12295000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11903000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11608000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8660700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8967500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9124400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10084800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7581600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4195,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4258,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4323,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4388,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4453,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6937000</v>
+      </c>
+      <c r="E72" s="3">
         <v>6402000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5933000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5666000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4585000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1960000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1861000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2109000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2218000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2127000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1735000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1373000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1269000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>969000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>635000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-405000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-456400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-474100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-464900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-413500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4583,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4648,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4713,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>55520000</v>
+      </c>
+      <c r="E76" s="3">
         <v>42567000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41493000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>40310000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38440000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>34565000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33885000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33279000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17166000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16446000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15605000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14693000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13528000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11060000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10376000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8829400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8451300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7934500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7500100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6806000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4843,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>535000</v>
+      </c>
+      <c r="E81" s="3">
         <v>469000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>267000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1081000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2625000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>99000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-248000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-109000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>91000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>392000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>362000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>105000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>299000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>344000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>206000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>107000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>46000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-51400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5005,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>719000</v>
+      </c>
+      <c r="E83" s="3">
         <v>685000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>869000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>670000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>649000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>658000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>633000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>608000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>457000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>437000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>273000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>256000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>252000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>181000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>188000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>187600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>192300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>185100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>180800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5133,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5198,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5263,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5328,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5393,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>386000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3228000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2174000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>339000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>429000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1859000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1632000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>298000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>436000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1965000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1331000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>143000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>458000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1466000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1051400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>125600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>331000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1230000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>706100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5485,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-213000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-171000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-149000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-124000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-114000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-323000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-136000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-170000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-178000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-159000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-167000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-136000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-170000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-122000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-138000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-111000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-128400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-313600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-144000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5613,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5678,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11054000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1047000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>94000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2593000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-437000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1465000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>63000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-852000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-726000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-378000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-545000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4661000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>276000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-583900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-135300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-523600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-767700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-497800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-193800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,8 +5770,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5599,8 +5833,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5898,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5963,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,190 +6028,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8440000</v>
+      </c>
+      <c r="E100" s="3">
         <v>165000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>176000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>368000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>441000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>209000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>125000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>15000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-183000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>207000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-386000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>182000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>589000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1625000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>19200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>134000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>117000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-49000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>260000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>81800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>27000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-15000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-18000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>12000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-15800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2245000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2349000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2471000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-328000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1720000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1627000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>277000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>358000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1441000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>564000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-214000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3603000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3379000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>471600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>122700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-75800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>418400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>460800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>30500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>CRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6863000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6340000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5963000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5817000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5419000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5151000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4865000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4851000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4513000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3997000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3737000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3603000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3392000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3281000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3006000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2865000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2701000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2577000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2397000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2294000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2144800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1844000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1613000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1555000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1479000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1394000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1311000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1254000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1220000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1134000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>967000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>914000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>946000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>889000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>849000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>767000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>738000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>714000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>670000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>651000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>626000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>585500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5019000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4727000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4408000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4338000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4025000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3840000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3611000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3631000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3379000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3030000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2823000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2657000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2503000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2432000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2239000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2127000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1987000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1907000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1746000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1668000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1559300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,73 +977,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1020000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>951000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>939000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>902000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>898000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>859000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>831000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>774000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>607000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>554000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>518000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>481000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>463000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>424000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>396000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>394000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>387000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>376000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>344200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>311500</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1094,55 +1111,58 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E14" s="3">
         <v>20000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>14000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>166000</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>19000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5000</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1159,73 +1179,79 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E15" s="3">
         <v>135000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>120000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>115000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>114000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>118000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>112000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>110000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>109000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>65000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>68000</v>
       </c>
       <c r="N15" s="3">
         <v>68000</v>
       </c>
       <c r="O15" s="3">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="P15" s="3">
         <v>67000</v>
       </c>
       <c r="Q15" s="3">
+        <v>67000</v>
+      </c>
+      <c r="R15" s="3">
         <v>30000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>30300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>30400</v>
-      </c>
-      <c r="T15" s="3">
-        <v>31400</v>
       </c>
       <c r="U15" s="3">
         <v>31400</v>
       </c>
       <c r="V15" s="3">
+        <v>31400</v>
+      </c>
+      <c r="W15" s="3">
         <v>31600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1246,138 +1272,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6836000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6028000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5623000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5624000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5195000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4973000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5005000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4887000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4448000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3939000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3527000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3466000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3300000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3166000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2815000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2654000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2546000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2493000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2393000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2317900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2142300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E18" s="3">
         <v>312000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>340000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>193000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>224000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>178000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-140000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-36000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>65000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>58000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>210000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>137000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>92000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>115000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>191000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>211000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>155000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>84000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-23900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1401,152 +1434,159 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>344000</v>
+      </c>
+      <c r="E20" s="3">
         <v>554000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>297000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>283000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1051000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>686000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>212000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>62000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>30000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>140000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>307000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>143000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>76000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>155000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>228000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>32000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>12000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>8000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>24800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1334000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1585000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1322000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1345000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1945000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1513000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>730000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>659000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>703000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>655000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>954000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>553000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>424000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>522000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>600000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>431000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>355000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>277000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>197000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>181600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>178700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E22" s="3">
         <v>40000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>33000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>51000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>25000</v>
       </c>
       <c r="H22" s="3">
         <v>25000</v>
@@ -1555,179 +1595,188 @@
         <v>25000</v>
       </c>
       <c r="J22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K22" s="3">
         <v>30000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>31000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>35000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>41000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>40000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>39000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>34000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>22000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>21000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>22000</v>
       </c>
       <c r="U22" s="3">
         <v>22000</v>
       </c>
       <c r="V22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="W22" s="3">
         <v>24300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E23" s="3">
         <v>826000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>604000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>425000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1250000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>839000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>47000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>64000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>164000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>482000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>239000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>128000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>231000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>385000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>221000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>146000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>63000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-10000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-23500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-169000</v>
+      </c>
+      <c r="E24" s="3">
         <v>291000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>135000</v>
       </c>
       <c r="F24" s="3">
         <v>135000</v>
       </c>
       <c r="G24" s="3">
+        <v>135000</v>
+      </c>
+      <c r="H24" s="3">
         <v>169000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1786000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-52000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>238000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>173000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>73000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>90000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-166000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-68000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>41000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-111000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>39000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>17000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-11000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>28000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1791,138 +1840,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>468000</v>
+      </c>
+      <c r="E26" s="3">
         <v>535000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>469000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>290000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1081000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2625000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>99000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-242000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-109000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>91000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>392000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>405000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>105000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>299000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>344000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>332000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>107000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>46000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-51400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>468000</v>
+      </c>
+      <c r="E27" s="3">
         <v>535000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>469000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>290000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1081000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2625000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>99000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-242000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-109000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>91000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>392000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>405000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>105000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>299000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>344000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>332000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>107000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>46000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-51400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1986,8 +2044,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1997,11 +2058,11 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3">
         <v>-23000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -2009,11 +2070,11 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3">
         <v>-6000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -2021,11 +2082,11 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3">
         <v>-43000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -2033,11 +2094,11 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3">
         <v>-126000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -2051,8 +2112,11 @@
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2116,8 +2180,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2181,138 +2248,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-344000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-554000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-297000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-283000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-686000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-212000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-62000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-30000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-140000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-307000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-143000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-76000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-155000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-228000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-32000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-12000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-8000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-24800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>468000</v>
+      </c>
+      <c r="E33" s="3">
         <v>535000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>469000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>267000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1081000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2625000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>99000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-248000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-109000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>91000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>392000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>362000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>105000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>299000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>344000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>206000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>107000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>46000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-51400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2376,143 +2452,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>468000</v>
+      </c>
+      <c r="E35" s="3">
         <v>535000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>469000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>267000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1081000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2625000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>99000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-248000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-109000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>91000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>392000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>362000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>105000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>299000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>344000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>206000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>107000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>46000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-51400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2536,8 +2621,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2561,203 +2647,213 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4753000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6299000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8544000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6195000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3724000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4052000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5772000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4145000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3868000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3510000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4110000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2669000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2105000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2319000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5922000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2543000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2071800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1949100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2024900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1606500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1145700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4638000</v>
+      </c>
+      <c r="E42" s="3">
         <v>3351000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6479000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5771000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5768000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>5231000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>4030000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3802000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2661000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2532000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2269000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1673000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1345000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1108000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1237000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1978000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1556800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1552100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1194600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>602300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>55100</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5261000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5285000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4340000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8932000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4333000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4393000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3957000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7100000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3386000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3118000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2939000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5712000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2753000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2688000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2464000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4625000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1553000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1606000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1473600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3230800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1307300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2821,333 +2917,351 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1305000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1321000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1081000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>991000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1121000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1170000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>954000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>916000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1111000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>743000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>717000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>629000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>667000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>687000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>528000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>964900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>764500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>704100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>711400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>557100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15957000</v>
+      </c>
+      <c r="E46" s="3">
         <v>16256000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20444000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21889000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14946000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14846000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14713000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15963000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11026000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9903000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10035000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10683000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6870000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6802000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10151000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9584000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5946200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5811300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5404500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5996800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3001600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5854000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5925000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5680000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5666000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5443000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3931000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3146000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3404000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2983000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2800000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2797000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2655000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2378000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2371000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2200000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1941000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>670400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>657700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>639200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>567000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1106300</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5677000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5834000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5555000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5663000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5526000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5513000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5501000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5415000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5515000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5187000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5097000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2051000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1998000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1986000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1950000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1947000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1864900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1866600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1846400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1787500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1756700</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>57423000</v>
+      </c>
+      <c r="E49" s="3">
         <v>57849000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>30565000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>30432000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>30711000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>30977000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29754000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29858000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30009000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14924000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14648000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14926000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15078000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14408000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8429000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8478800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8357500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8431600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8507900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>8567700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7888700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3211,8 +3325,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3276,73 +3393,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2525000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2794000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2641000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2651000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2510000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2513000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>509000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>486000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>409000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>522000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>577000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>422000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>264000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>256000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>233000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>999400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>651100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>651600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>661000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>675500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>634500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3406,73 +3529,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>87436000</v>
+      </c>
+      <c r="E54" s="3">
         <v>88658000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>64885000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>66301000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>59136000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>57780000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>53623000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>55126000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>49942000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33336000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33154000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30737000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26588000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25823000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22963000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>21984000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17490000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17418800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17058900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17584900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>14387700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3496,8 +3625,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3521,81 +3651,85 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4231000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4274000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3439000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4355000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3546000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3485000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2916000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3356000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2763000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2271000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2050000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>165000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>160000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>201000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>134000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>146900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>120000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>148300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>128100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>227500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="3">
         <v>1339000</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>10</v>
@@ -3609,310 +3743,325 @@
       <c r="I58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="3">
         <v>53000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>65000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>76000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>178000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>216000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>706000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>708000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>103000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1128000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1272000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1269400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1143200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>121700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10804000</v>
+      </c>
+      <c r="E59" s="3">
         <v>11780000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11884000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13373000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8688000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9478000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9927000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11436000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7646000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7848000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8260000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10874000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7156000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7560000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7658000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9838600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5824400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6108500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6354600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7657500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4815500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15035000</v>
+      </c>
+      <c r="E60" s="3">
         <v>17393000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15323000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17728000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12234000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12963000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12843000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14845000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10474000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10195000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10488000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11255000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8022000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8469000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7895000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10067000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7216400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7526200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7625900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7295500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4975500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10591000</v>
+      </c>
+      <c r="E61" s="3">
         <v>10589000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2672000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2673000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2672000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>2673000</v>
       </c>
       <c r="I61" s="3">
         <v>2673000</v>
       </c>
       <c r="J61" s="3">
+        <v>2673000</v>
+      </c>
+      <c r="K61" s="3">
         <v>3005000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3158000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3309000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3532000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3430000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3685000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3690000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3885000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>695000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1327000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1329900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1392300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2690000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2496200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4756000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5156000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4323000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4407000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3920000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3704000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3542000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3391000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3031000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2666000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2688000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>447000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>188000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>136000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>123000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>967000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>117200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>111400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>106300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>136500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3976,8 +4125,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4041,8 +4193,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4106,73 +4261,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>30382000</v>
+      </c>
+      <c r="E66" s="3">
         <v>33138000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22318000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24808000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18826000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19340000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19058000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21241000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16663000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16170000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16708000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15132000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11895000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12295000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11903000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11608000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8660700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8967500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9124400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10084800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7581600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4196,8 +4357,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4261,8 +4423,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4326,8 +4491,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4391,8 +4559,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4456,73 +4627,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7405000</v>
+      </c>
+      <c r="E72" s="3">
         <v>6937000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6402000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5933000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5666000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4585000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1960000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1861000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2109000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2218000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2127000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1735000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1373000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1269000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>969000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>635000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-405000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-456400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-474100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-464900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-413500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4586,8 +4763,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4651,8 +4831,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4716,73 +4899,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>57054000</v>
+      </c>
+      <c r="E76" s="3">
         <v>55520000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>42567000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>41493000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40310000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>38440000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>34565000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33885000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33279000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17166000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16446000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15605000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14693000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13528000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11060000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10376000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8829400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8451300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7934500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7500100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6806000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4846,143 +5035,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>468000</v>
+      </c>
+      <c r="E81" s="3">
         <v>535000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>469000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>267000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1081000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2625000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>99000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-248000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-109000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>91000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>392000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>362000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>105000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>299000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>344000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>206000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>107000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>46000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-51400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5006,73 +5204,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>963000</v>
+      </c>
+      <c r="E83" s="3">
         <v>719000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>685000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>869000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>670000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>649000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>658000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>633000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>608000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>457000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>437000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>273000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>256000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>252000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>181000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>188000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>187600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>192300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>185100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>180800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5136,8 +5338,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5201,8 +5406,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5266,8 +5474,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5331,8 +5542,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5396,73 +5610,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>404000</v>
+      </c>
+      <c r="E89" s="3">
         <v>386000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3228000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2174000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>339000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>429000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1859000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1632000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>298000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>436000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1965000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1331000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>143000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>458000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1466000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1051400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>125600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>331000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1230000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>706100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5486,73 +5706,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-213000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-171000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-149000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-124000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-114000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-323000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-136000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-170000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-178000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-159000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-167000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-136000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-170000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-122000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-138000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-111000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-128400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-313600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-144000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5616,8 +5840,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5681,73 +5908,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-976000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11054000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1047000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>94000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2593000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-437000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1465000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>63000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-852000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-726000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-378000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-545000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4661000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>276000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-583900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-135300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-523600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-767700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-497800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-193800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5771,8 +6004,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5836,8 +6070,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5901,8 +6138,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5966,8 +6206,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6031,199 +6274,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-970000</v>
+      </c>
+      <c r="E100" s="3">
         <v>8440000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>165000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>176000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>368000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>441000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>209000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>125000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>15000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-183000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>207000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-386000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>182000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>589000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1625000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>19200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>134000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>117000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-49000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>260000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>81800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-17000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>27000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-15000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-18000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>11000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>12000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-15800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>6100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1546000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2245000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2349000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2471000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-328000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1720000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1627000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>277000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>358000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1441000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>564000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-214000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3603000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3379000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>471600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>122700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-75800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>418400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>460800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>30500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>CRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,307 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7326000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6863000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6340000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5963000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5817000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5419000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5151000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4865000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4851000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4513000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3997000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3737000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3603000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3392000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3281000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3006000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2865000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2701000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2577000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2397000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2294000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2144800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2014000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1844000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1613000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1555000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1479000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1394000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1311000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1254000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1220000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1134000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>967000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>914000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>946000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>889000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>849000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>767000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>738000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>714000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>670000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>651000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>626000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>585500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5312000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5019000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4727000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4408000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4338000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4025000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3840000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3611000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3631000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3379000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3030000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2823000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2657000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2503000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2432000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2239000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2127000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1987000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1907000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1746000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1668000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1559300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,76 +990,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1291000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1203000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1020000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>951000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>939000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>902000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>898000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>859000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>831000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>774000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>607000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>554000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>518000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>481000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>463000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>424000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>396000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>394000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>387000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>376000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>344200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>311500</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1114,58 +1130,61 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="3">
         <v>11000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>20000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>166000</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>19000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5000</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1182,8 +1201,11 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1191,67 +1213,70 @@
         <v>236000</v>
       </c>
       <c r="E15" s="3">
+        <v>236000</v>
+      </c>
+      <c r="F15" s="3">
         <v>135000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>120000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>115000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>114000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>118000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>112000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>110000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>109000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>65000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>68000</v>
       </c>
       <c r="O15" s="3">
         <v>68000</v>
       </c>
       <c r="P15" s="3">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="Q15" s="3">
         <v>67000</v>
       </c>
       <c r="R15" s="3">
+        <v>67000</v>
+      </c>
+      <c r="S15" s="3">
         <v>30000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>30300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>30400</v>
-      </c>
-      <c r="U15" s="3">
-        <v>31400</v>
       </c>
       <c r="V15" s="3">
         <v>31400</v>
       </c>
       <c r="W15" s="3">
+        <v>31400</v>
+      </c>
+      <c r="X15" s="3">
         <v>31600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1273,144 +1298,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7508000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6836000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6028000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5623000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5624000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5195000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4973000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5005000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4887000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4448000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3939000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3527000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3466000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3300000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3166000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2815000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2654000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2546000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2493000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2393000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2317900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2142300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="E18" s="3">
         <v>27000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>312000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>340000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>193000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>224000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>178000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-140000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-36000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>65000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>58000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>210000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>137000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>92000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>115000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>191000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>211000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>155000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>84000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-23900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1435,161 +1467,168 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E20" s="3">
         <v>344000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>554000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>297000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>283000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1051000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>686000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>212000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>62000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>30000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>140000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>307000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>143000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>76000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>155000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>228000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>32000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>12000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>8000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>24800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>805000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1334000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1585000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1322000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1345000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1945000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1513000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>730000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>659000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>703000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>655000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>954000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>553000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>424000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>522000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>600000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>431000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>355000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>277000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>197000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>181600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>178700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E22" s="3">
         <v>72000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>40000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>33000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>51000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>25000</v>
       </c>
       <c r="I22" s="3">
         <v>25000</v>
@@ -1598,117 +1637,123 @@
         <v>25000</v>
       </c>
       <c r="K22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="L22" s="3">
         <v>30000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>31000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>34000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>35000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>41000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>40000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>39000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>34000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>22000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>21000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>22000</v>
       </c>
       <c r="V22" s="3">
         <v>22000</v>
       </c>
       <c r="W22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="X22" s="3">
         <v>24300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="E23" s="3">
         <v>299000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>826000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>604000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>425000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1250000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>839000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>47000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>64000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>164000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>482000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>239000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>128000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>231000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>385000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>221000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>146000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>63000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-10000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-23500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1716,67 +1761,70 @@
         <v>-169000</v>
       </c>
       <c r="E24" s="3">
+        <v>-169000</v>
+      </c>
+      <c r="F24" s="3">
         <v>291000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>135000</v>
       </c>
       <c r="G24" s="3">
         <v>135000</v>
       </c>
       <c r="H24" s="3">
+        <v>135000</v>
+      </c>
+      <c r="I24" s="3">
         <v>169000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1786000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-52000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>238000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>173000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>73000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>90000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-166000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-68000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>41000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-111000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>39000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>17000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-11000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>28000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1843,144 +1891,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E26" s="3">
         <v>468000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>535000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>469000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>290000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1081000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2625000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>99000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-242000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-109000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>91000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>392000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>405000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>105000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>299000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>344000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>332000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>107000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>46000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-51400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E27" s="3">
         <v>468000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>535000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>469000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>290000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1081000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2625000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>99000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-242000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-109000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>91000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>392000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>405000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>105000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>299000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>344000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>332000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>107000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>46000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-51400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2047,13 +2104,16 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>10</v>
@@ -2061,11 +2121,11 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3">
         <v>-23000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -2073,11 +2133,11 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3">
         <v>-6000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -2085,11 +2145,11 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3">
         <v>-43000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -2097,11 +2157,11 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3">
         <v>-126000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
@@ -2115,8 +2175,11 @@
       <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2183,8 +2246,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2251,144 +2317,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-344000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-554000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-297000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-283000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-686000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-212000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-62000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-30000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-140000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-307000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-143000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-155000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-228000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-32000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-12000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-8000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-24800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E33" s="3">
         <v>468000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>535000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>469000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>267000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1081000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2625000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>99000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-248000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-109000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>91000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>392000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>362000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>105000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>299000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>344000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>206000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>107000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>46000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-51400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2455,149 +2530,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E35" s="3">
         <v>468000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>535000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>469000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>267000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1081000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2625000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>99000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-248000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-109000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>91000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>392000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>362000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>105000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>299000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>344000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>206000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>107000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>46000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-51400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2622,8 +2706,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2648,212 +2733,222 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5464000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4753000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6299000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8544000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6195000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3724000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4052000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5772000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4145000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3868000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3510000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4110000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2669000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2105000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2319000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5922000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2543000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2071800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1949100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2024900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1606500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1145700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5073000</v>
+      </c>
+      <c r="E42" s="3">
         <v>4638000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3351000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6479000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5771000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>5768000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>5231000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>4030000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3802000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2661000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2532000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2269000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1673000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1345000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1108000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1237000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1978000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1556800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1552100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1194600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>602300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>55100</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11193000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5261000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5285000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4340000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8932000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4333000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4393000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3957000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7100000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3386000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3118000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2939000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5712000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2753000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2688000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2464000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4625000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1553000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1606000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1473600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3230800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1307300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2920,348 +3015,366 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1120000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1305000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1321000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1081000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>991000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1121000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1170000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>954000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>916000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1111000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>743000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>717000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>629000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>667000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>687000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>528000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>964900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>764500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>704100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>711400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>557100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22850000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15957000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16256000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20444000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21889000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14946000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14846000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14713000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15963000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11026000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9903000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10035000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10683000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6870000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6802000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10151000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9584000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5946200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5811300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5404500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5996800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3001600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7126000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5854000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5925000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5680000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5666000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5443000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3931000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3146000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3404000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2983000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2800000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2797000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2655000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2378000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2371000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2200000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1941000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>670400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>657700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>639200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>567000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1106300</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5695000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5677000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5834000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5555000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5663000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5526000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5513000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5501000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5415000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5515000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5187000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5097000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2051000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1998000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1986000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1950000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1947000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1864900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1866600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1846400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1787500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1756700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>56915000</v>
+      </c>
+      <c r="E49" s="3">
         <v>57423000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>57849000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>30565000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>30432000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>30711000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>30977000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29754000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29858000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>30009000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14924000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14648000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14926000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>15078000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14408000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8429000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8478800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8357500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8431600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>8507900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>8567700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7888700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3328,8 +3441,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3396,76 +3512,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2623000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2525000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2794000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2641000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2651000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2510000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2513000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>509000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>486000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>409000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>522000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>577000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>422000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>264000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>256000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>233000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>999400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>651100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>651600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>661000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>675500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>634500</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3532,76 +3654,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95209000</v>
+      </c>
+      <c r="E54" s="3">
         <v>87436000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>88658000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>64885000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>66301000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>59136000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>57780000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>53623000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55126000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>49942000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33336000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33154000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30737000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>26588000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25823000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22963000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21984000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17490000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17418800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17058900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17584900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>14387700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3626,8 +3754,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3652,87 +3781,91 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5474000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4231000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4274000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3439000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4355000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3546000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3485000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2916000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3356000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2763000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2271000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2050000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>165000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>160000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>201000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>134000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>146900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>120000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>148300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>128100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>227500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="3">
         <v>1339000</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>10</v>
@@ -3746,322 +3879,337 @@
       <c r="J58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="3">
         <v>53000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>65000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>76000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>178000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>216000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>706000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>708000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>103000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1128000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1272000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1269400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1143200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>121700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16314000</v>
+      </c>
+      <c r="E59" s="3">
         <v>10804000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11780000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11884000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13373000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8688000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9478000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9927000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11436000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7646000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7848000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8260000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10874000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7156000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7560000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7658000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9838600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5824400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6108500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6354600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7657500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4815500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21788000</v>
+      </c>
+      <c r="E60" s="3">
         <v>15035000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17393000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15323000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17728000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12234000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12963000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12843000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14845000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10474000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10195000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10488000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11255000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8022000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8469000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7895000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10067000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7216400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7526200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7625900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7295500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4975500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10592000</v>
+      </c>
+      <c r="E61" s="3">
         <v>10591000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10589000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2672000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2673000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2672000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>2673000</v>
       </c>
       <c r="J61" s="3">
         <v>2673000</v>
       </c>
       <c r="K61" s="3">
+        <v>2673000</v>
+      </c>
+      <c r="L61" s="3">
         <v>3005000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3158000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3309000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3532000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3430000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3685000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3690000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3885000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>695000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1327000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1329900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1392300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2690000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2496200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4698000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4756000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5156000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4323000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4407000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3920000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3704000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3542000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3391000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3031000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2666000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2688000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>447000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>188000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>136000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>123000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>967000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>117200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>111400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>106300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>136500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4128,8 +4276,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4196,8 +4347,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4264,76 +4418,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37078000</v>
+      </c>
+      <c r="E66" s="3">
         <v>30382000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>33138000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22318000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>24808000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18826000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19340000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19058000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21241000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16663000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16170000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16708000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15132000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11895000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12295000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11903000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11608000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8660700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8967500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9124400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10084800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7581600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4358,8 +4518,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4426,8 +4587,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4494,8 +4658,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4562,8 +4729,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4630,76 +4800,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7377000</v>
+      </c>
+      <c r="E72" s="3">
         <v>7405000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6937000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6402000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5933000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5666000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4585000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1960000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1861000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2109000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2218000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2127000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1735000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1373000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1269000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>969000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>635000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-405000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-456400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-474100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-464900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-413500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4766,8 +4942,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4834,8 +5013,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4902,76 +5084,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>58131000</v>
+      </c>
+      <c r="E76" s="3">
         <v>57054000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>55520000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>42567000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41493000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>40310000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>38440000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>34565000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33885000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33279000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17166000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16446000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15605000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14693000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13528000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11060000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10376000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8829400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8451300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7934500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7500100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6806000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5038,149 +5226,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E81" s="3">
         <v>468000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>535000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>469000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>267000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1081000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2625000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>99000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-248000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-109000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>91000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>392000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>362000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>105000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>299000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>344000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>206000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>107000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>46000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-51400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5205,76 +5402,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>931000</v>
+      </c>
+      <c r="E83" s="3">
         <v>963000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>719000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>685000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>869000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>670000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>649000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>658000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>633000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>608000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>457000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>437000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>273000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>256000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>252000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>181000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>188000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>187600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>192300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>185100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>180800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5341,8 +5542,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5409,8 +5613,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5477,8 +5684,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5545,8 +5755,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5613,76 +5826,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="E89" s="3">
         <v>404000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>386000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3228000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2174000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>339000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>429000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1859000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1632000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>298000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>436000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1965000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1331000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>143000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>458000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1466000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1051400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>125600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>331000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1230000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>706100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5707,76 +5926,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-166000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-213000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-171000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-149000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-124000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-114000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-323000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-136000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-170000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-178000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-159000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-167000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-136000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-170000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-122000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-138000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-111000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-128400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-313600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-144000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5843,8 +6066,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5911,76 +6137,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1459000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-976000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11054000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1047000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>94000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2593000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-437000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1465000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>63000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-852000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-726000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-378000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-545000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4661000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>276000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-583900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-135300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-523600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-767700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-497800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-193800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6005,8 +6237,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6073,8 +6306,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6141,8 +6377,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6209,8 +6448,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6277,208 +6519,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-970000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8440000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>165000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>176000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>368000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>441000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>209000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>125000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>15000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-183000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>207000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-386000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>182000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>589000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1625000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>19200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>134000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>117000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-49000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>260000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>81800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-17000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>27000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-18000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>12000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-15800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>6100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-7500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>711000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1546000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2245000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2349000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2471000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-328000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1720000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1627000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>277000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>358000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1441000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>564000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-214000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3603000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3379000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>471600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>122700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-75800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>418400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>460800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>30500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>CRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,331 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7720000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7411000</v>
+      </c>
+      <c r="F8" s="3">
         <v>7326000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>6863000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6340000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5963000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5817000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5419000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5151000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4865000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4851000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4513000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3997000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3737000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3603000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3392000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3281000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3006000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2865000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2701000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2577000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2397000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2294000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2144800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2127000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2045000</v>
+      </c>
+      <c r="F9" s="3">
         <v>2014000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1844000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1613000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1555000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1479000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1394000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1311000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1254000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1220000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1134000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>967000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>914000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>946000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>889000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>849000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>767000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>738000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>714000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>670000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>651000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>626000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>585500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5593000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5366000</v>
+      </c>
+      <c r="F10" s="3">
         <v>5312000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>5019000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>4727000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>4408000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>4338000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4025000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3840000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3611000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3631000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>3379000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3030000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2823000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2657000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2503000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2432000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2239000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2127000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1987000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1907000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1746000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1668000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1559300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,79 +1015,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1329000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1318000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1291000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1203000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1020000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>951000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>939000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>902000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>898000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>859000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>831000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>774000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>607000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>554000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>518000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>481000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>463000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>424000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>396000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>394000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>387000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>376000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>344200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>311500</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1133,64 +1165,70 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>6000</v>
+        <v>42000</v>
       </c>
       <c r="E14" s="3">
         <v>11000</v>
       </c>
       <c r="F14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H14" s="3">
         <v>20000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>14000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>166000</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>3000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>19000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>5000</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1204,79 +1242,91 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>237000</v>
+      </c>
+      <c r="F15" s="3">
         <v>236000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>236000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>135000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>120000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>115000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>114000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>118000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>112000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>110000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>109000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>65000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>68000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>68000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>67000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>67000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>30000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>30300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>30400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>31400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>31400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>31600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1299,150 +1349,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7569000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7402000</v>
+      </c>
+      <c r="F17" s="3">
         <v>7508000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6836000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6028000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5623000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5624000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5195000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4973000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5005000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4887000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4448000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3939000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3527000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3466000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3300000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3166000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2815000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2654000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2546000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2493000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2393000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2317900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2142300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-182000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>27000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>312000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>340000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>193000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>224000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>178000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-140000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-36000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>65000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>58000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>210000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>137000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>92000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>115000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>191000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>211000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>155000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>84000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>4000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-23900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1468,363 +1532,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F20" s="3">
         <v>56000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>344000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>554000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>297000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>283000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1051000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>686000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>212000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>62000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>30000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>140000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>307000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>143000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>76000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>155000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>228000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>32000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>12000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>8000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>24800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1164000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>951000</v>
+      </c>
+      <c r="F21" s="3">
         <v>805000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1334000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1585000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1322000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1345000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1945000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1513000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>730000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>659000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>703000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>655000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>954000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>553000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>424000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>522000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>600000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>431000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>355000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>277000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>197000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>181600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>178700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>74000</v>
+      </c>
+      <c r="F22" s="3">
         <v>71000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>72000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>40000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>33000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>51000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>25000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>25000</v>
       </c>
       <c r="K22" s="3">
         <v>25000</v>
       </c>
       <c r="L22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="N22" s="3">
         <v>30000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>31000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>34000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>35000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>41000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>40000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>39000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>34000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>22000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>21000</v>
       </c>
       <c r="V22" s="3">
         <v>22000</v>
       </c>
       <c r="W22" s="3">
+        <v>21000</v>
+      </c>
+      <c r="X22" s="3">
         <v>22000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>24300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-197000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>299000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>826000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>604000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>425000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1250000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>839000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>47000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>64000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>164000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>482000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>239000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>128000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>231000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>385000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>221000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>146000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>63000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-10000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-23500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-169000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-169000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>291000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>135000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>135000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>169000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1786000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-52000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>238000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>173000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>73000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>90000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-166000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>23000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-68000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>41000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-111000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>39000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>17000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-11000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>28000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1894,150 +1990,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-28000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>468000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>535000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>469000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>290000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1081000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2625000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>99000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-242000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-109000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>91000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>392000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>405000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>105000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>299000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>344000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>332000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>107000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>46000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-51400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-28000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>468000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>535000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>469000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>290000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1081000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2625000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>99000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-242000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-109000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>91000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>392000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>405000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>105000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>299000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>344000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>332000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>107000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>46000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-51400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2107,67 +2221,73 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>-23000</v>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+      <c r="J29" s="3">
+        <v>-23000</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>-6000</v>
+      <c r="L29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
+      <c r="N29" s="3">
+        <v>-6000</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
-        <v>-43000</v>
+      <c r="P29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
+      <c r="R29" s="3">
+        <v>-43000</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
-        <v>-126000</v>
+      <c r="T29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
+      <c r="V29" s="3">
+        <v>-126000</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
@@ -2178,8 +2298,14 @@
       <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2249,8 +2375,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2320,150 +2452,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-56000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-344000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-554000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-297000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-283000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-686000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-212000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-62000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-30000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-140000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-307000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-143000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-76000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-155000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-228000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-32000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-12000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-8000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-24800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-28000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>468000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>535000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>469000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>267000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1081000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2625000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>99000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-248000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-109000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>91000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>392000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>362000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>105000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>299000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>344000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>206000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>107000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>46000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-51400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2533,155 +2683,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-28000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>468000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>535000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>469000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>267000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1081000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2625000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>99000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-248000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-109000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>91000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>392000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>362000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>105000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>299000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>344000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>206000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>107000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>46000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-51400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2707,8 +2875,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2734,221 +2904,241 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6931000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6859000</v>
+      </c>
+      <c r="F41" s="3">
         <v>5464000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4753000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6299000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8544000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6195000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3724000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4052000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5772000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4145000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3868000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3510000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4110000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2669000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2105000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2319000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5922000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2543000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2071800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1949100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2024900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1606500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1145700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6602000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6644000</v>
+      </c>
+      <c r="F42" s="3">
         <v>5073000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>4638000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>3351000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>6479000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>5771000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>5768000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>5231000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>4030000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>3802000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>2661000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>2532000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>2269000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1673000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1345000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1108000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1237000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1978000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>1556800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1552100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>1194600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>602300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>55100</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6276000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5430000</v>
+      </c>
+      <c r="F43" s="3">
         <v>11193000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5261000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>5285000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4340000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>8932000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>4333000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4393000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3957000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>7100000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3386000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3118000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2939000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>5712000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2753000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2688000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2464000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>4625000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1553000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1606000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1473600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>3230800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1307300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3018,363 +3208,399 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1437000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1478000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1120000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1305000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1321000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1081000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>991000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1121000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1170000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>954000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>916000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1111000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>743000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>717000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>629000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>667000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>687000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>528000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>964900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>764500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>704100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>711400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>557100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21246000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>20411000</v>
+      </c>
+      <c r="F46" s="3">
         <v>22850000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>15957000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>16256000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>20444000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>21889000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>14946000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>14846000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>14713000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>15963000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>11026000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>9903000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>10035000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>10683000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6870000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>6802000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>10151000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>9584000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>5946200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>5811300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>5404500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>5996800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>3001600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7491000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7259000</v>
+      </c>
+      <c r="F47" s="3">
         <v>7126000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>5854000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>5925000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>5680000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>5666000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>5443000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3931000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3146000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>3404000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2983000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2800000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2797000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2655000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>2378000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>2371000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>2200000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1941000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>670400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>657700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>639200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>567000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>1106300</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6102000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5781000</v>
+      </c>
+      <c r="F48" s="3">
         <v>5695000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5677000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5834000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5555000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5663000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5526000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5513000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5501000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5415000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5515000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5187000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5097000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2051000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1998000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1986000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1950000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1947000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1864900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1866600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1846400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1787500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1756700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>56640000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>56878000</v>
+      </c>
+      <c r="F49" s="3">
         <v>56915000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>57423000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>57849000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>30565000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>30432000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>30711000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>30977000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>29754000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>29858000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>30009000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>14924000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>14648000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>14926000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>15078000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>14408000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>8429000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>8478800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>8357500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>8431600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>8507900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>8567700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>7888700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3444,8 +3670,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3515,79 +3747,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2669000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2693000</v>
+      </c>
+      <c r="F52" s="3">
         <v>2623000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2525000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2794000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2641000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2651000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2510000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2513000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>509000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>486000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>409000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>522000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>577000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>422000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>264000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>256000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>233000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>999400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>651100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>651600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>661000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>675500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>634500</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3657,79 +3901,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>94148000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>93022000</v>
+      </c>
+      <c r="F54" s="3">
         <v>95209000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>87436000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>88658000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>64885000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>66301000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>59136000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>57780000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>53623000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>55126000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>49942000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>33336000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>33154000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>30737000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>26588000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>25823000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>22963000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>21984000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>17490000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>17418800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>17058900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>17584900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>14387700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3755,8 +4011,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3782,96 +4040,104 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5446000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4603000</v>
+      </c>
+      <c r="F57" s="3">
         <v>5474000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4231000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4274000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3439000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4355000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3546000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3485000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2916000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3356000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2763000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2271000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2050000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>165000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>160000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>201000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>134000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>146900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>120000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>148300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>128100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>227500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>1183000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1339000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>10</v>
+      <c r="H58" s="3">
+        <v>1339000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>10</v>
@@ -3882,209 +4148,227 @@
       <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N58" s="3">
         <v>53000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>65000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>76000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>178000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>216000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>706000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>708000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>103000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1128000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1272000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1269400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1143200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>121700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13451000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14294000</v>
+      </c>
+      <c r="F59" s="3">
         <v>16314000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>10804000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>11780000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>11884000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>13373000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>8688000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>9478000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>9927000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>11436000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>7646000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>7848000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>8260000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>10874000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>7156000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>7560000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>7658000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>9838600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>5824400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>6108500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>6354600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>7657500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>4815500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20080000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>19899000</v>
+      </c>
+      <c r="F60" s="3">
         <v>21788000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>15035000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>17393000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>15323000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>17728000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>12234000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>12963000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>12843000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>14845000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>10474000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>10195000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>10488000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>11255000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>8022000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>8469000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>7895000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>10067000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>7216400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>7526200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>7625900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>7295500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>4975500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9416000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9595000</v>
+      </c>
+      <c r="F61" s="3">
         <v>10592000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>10591000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>10589000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>2672000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>2673000</v>
       </c>
       <c r="I61" s="3">
         <v>2672000</v>
@@ -4093,123 +4377,135 @@
         <v>2673000</v>
       </c>
       <c r="K61" s="3">
+        <v>2672000</v>
+      </c>
+      <c r="L61" s="3">
         <v>2673000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
+        <v>2673000</v>
+      </c>
+      <c r="N61" s="3">
         <v>3005000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3158000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3309000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3532000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3430000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>3685000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>3690000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>3885000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>695000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1327000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1329900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1392300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>2690000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>2496200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4554000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4652000</v>
+      </c>
+      <c r="F62" s="3">
         <v>4698000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>4756000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>5156000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4323000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>4407000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3920000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3704000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3542000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3391000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3031000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2666000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2688000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>447000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>188000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>136000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>123000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>967000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>117200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>111400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>106300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>136500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4279,8 +4575,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4350,8 +4652,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4421,79 +4729,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34050000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>34146000</v>
+      </c>
+      <c r="F66" s="3">
         <v>37078000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>30382000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>33138000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>22318000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>24808000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>18826000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>19340000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>19058000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>21241000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>16663000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>16170000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>16708000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>15132000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>11895000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>12295000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>11903000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>11608000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>8660700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>8967500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>9124400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>10084800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>7581600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4519,8 +4839,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4590,8 +4912,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4661,8 +4989,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4732,8 +5066,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4803,79 +5143,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7377000</v>
+        <v>7473000</v>
       </c>
       <c r="E72" s="3">
         <v>7405000</v>
       </c>
       <c r="F72" s="3">
+        <v>7377000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>7405000</v>
+      </c>
+      <c r="H72" s="3">
         <v>6937000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>6402000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>5933000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>5666000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>4585000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1960000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1861000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2109000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2218000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2127000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1735000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1373000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1269000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>969000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>635000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-405000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-456400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-474100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-464900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-413500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4945,8 +5297,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5016,8 +5374,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5087,79 +5451,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>60098000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>58876000</v>
+      </c>
+      <c r="F76" s="3">
         <v>58131000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>57054000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>55520000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>42567000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>41493000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>40310000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>38440000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>34565000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>33885000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>33279000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>17166000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>16446000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>15605000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>14693000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>13528000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>11060000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>10376000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>8829400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>8451300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>7934500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>7500100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>6806000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5229,155 +5605,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-28000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>468000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>535000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>469000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>267000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1081000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2625000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>99000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-248000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-109000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>91000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>392000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>362000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>105000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>299000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>344000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>206000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>107000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>46000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-51400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5403,79 +5797,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>907000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>906000</v>
+      </c>
+      <c r="F83" s="3">
         <v>931000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>963000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>719000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>685000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>869000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>670000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>649000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>658000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>633000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>608000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>457000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>437000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>273000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>256000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>252000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>181000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>188000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>187600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>192300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>185100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>180800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5545,8 +5947,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5616,8 +6024,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5687,8 +6101,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5758,8 +6178,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5829,79 +6255,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>334000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3676000</v>
+      </c>
+      <c r="F89" s="3">
         <v>1982000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>404000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>386000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3228000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2174000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>339000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>429000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1859000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1632000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>298000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>436000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1965000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1331000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>143000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>458000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1466000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1051400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>125600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>331000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1230000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>706100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5927,79 +6365,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-203000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-167000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-166000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-213000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-171000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-149000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-124000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-114000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-323000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-136000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-170000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-178000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-159000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-167000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-136000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-170000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-122000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-138000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-111000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-128400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-313600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-144000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6069,8 +6515,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6140,79 +6592,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-377000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2457000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1459000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-976000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-11054000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1047000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>94000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2593000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-437000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1465000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>63000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-852000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-726000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-378000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-545000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-4661000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>276000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-583900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-135300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-523600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-767700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-497800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-193800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6238,8 +6702,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6309,8 +6775,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6380,8 +6852,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6451,8 +6929,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6522,217 +7006,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>201000</v>
+      </c>
+      <c r="F100" s="3">
         <v>203000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-970000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>8440000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>165000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>176000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>368000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>441000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>209000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>125000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>15000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-183000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>207000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-386000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>182000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>589000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1625000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>19200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>134000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>117000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-49000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>260000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>81800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-15000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-17000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>27000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-15000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-18000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-5000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>6000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>11000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>12000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-15800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-1400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>6100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-7500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1395000</v>
+      </c>
+      <c r="F102" s="3">
         <v>711000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1546000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2245000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>2349000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2471000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-328000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1720000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1627000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>277000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>358000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-600000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1441000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>564000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-214000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-3603000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>3379000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>471600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>122700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-75800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>418400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>460800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>30500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>CRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,331 +665,355 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8384000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7837000</v>
+      </c>
+      <c r="F8" s="3">
         <v>7720000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>7411000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7326000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>6863000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6340000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5963000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5817000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5419000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5151000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4865000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4851000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4513000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3997000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3737000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3603000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3392000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3281000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>3006000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2865000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2701000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2577000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2397000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>2294000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2144800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2100000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2088000</v>
+      </c>
+      <c r="F9" s="3">
         <v>2127000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2045000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2014000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1844000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1613000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1555000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1479000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1394000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1311000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1254000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1220000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1134000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>967000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>914000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>946000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>889000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>849000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>767000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>738000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>714000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>670000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>651000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>626000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>585500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6284000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5749000</v>
+      </c>
+      <c r="F10" s="3">
         <v>5593000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>5366000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5312000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>5019000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>4727000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4408000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4338000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4025000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3840000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>3611000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3631000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>3379000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>3030000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2823000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2657000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2503000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2432000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>2239000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>2127000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1987000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1907000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1746000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>1668000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>1559300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,85 +1041,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1280000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1329000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1318000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1291000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1203000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1020000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>951000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>939000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>902000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>898000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>859000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>831000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>774000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>607000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>554000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>518000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>481000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>463000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>424000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>396000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>394000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>387000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>376000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>344200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>311500</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1171,70 +1203,76 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1198000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>68000</v>
+      </c>
+      <c r="F14" s="3">
         <v>42000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>11000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>6000</v>
       </c>
       <c r="G14" s="3">
         <v>11000</v>
       </c>
       <c r="H14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J14" s="3">
         <v>20000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>14000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>166000</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>3000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>19000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>5000</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1248,85 +1286,97 @@
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>224000</v>
+      </c>
+      <c r="F15" s="3">
         <v>232000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>237000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>236000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>236000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>135000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>120000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>115000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>114000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>118000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>112000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>110000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>109000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>65000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>68000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>68000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>67000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>67000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>30000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>30300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>30400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>31400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>31400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>31600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1351,162 +1401,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8397000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7445000</v>
+      </c>
+      <c r="F17" s="3">
         <v>7569000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7402000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7508000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6836000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6028000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5623000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5624000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5195000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4973000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5005000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4887000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4448000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3939000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3527000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3466000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3300000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3166000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2815000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2654000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2546000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2493000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2393000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2317900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2142300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>392000</v>
+      </c>
+      <c r="F18" s="3">
         <v>151000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>9000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-182000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>27000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>312000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>340000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>193000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>224000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>178000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-140000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-36000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>65000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>58000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>210000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>137000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>92000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>115000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>191000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>211000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>155000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>84000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>4000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-23900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1534,393 +1598,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>158000</v>
+      </c>
+      <c r="F20" s="3">
         <v>106000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>36000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>56000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>344000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>554000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>297000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>283000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1051000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>686000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>212000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>62000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>30000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>140000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>307000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>143000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>76000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>155000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>228000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>32000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>12000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>1000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>8000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>24800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1491000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1164000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>951000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>805000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1334000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1585000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1322000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1345000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1945000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1513000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>730000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>659000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>703000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>655000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>954000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>553000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>424000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>522000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>600000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>431000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>355000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>277000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>197000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>181600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>178700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F22" s="3">
         <v>76000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>74000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>71000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>72000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>40000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>33000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>51000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>25000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>25000</v>
       </c>
       <c r="M22" s="3">
         <v>25000</v>
       </c>
       <c r="N22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="O22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="P22" s="3">
         <v>30000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>31000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>34000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>35000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>41000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>40000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>39000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>34000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>22000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>21000</v>
       </c>
       <c r="X22" s="3">
         <v>22000</v>
       </c>
       <c r="Y22" s="3">
+        <v>21000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>22000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="AB22" s="3">
         <v>24300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>475000</v>
+      </c>
+      <c r="F23" s="3">
         <v>181000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-29000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-197000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>299000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>826000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>604000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>425000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1250000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>839000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>47000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>64000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>164000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>482000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>239000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>128000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>231000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>385000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>221000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>146000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>63000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-23500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>265000</v>
+      </c>
+      <c r="F24" s="3">
         <v>113000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-57000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-169000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-169000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>291000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>135000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>135000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>169000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-1786000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-52000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>238000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>173000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>73000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>90000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-166000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>23000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-68000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>41000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-111000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>39000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>17000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-11000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>28000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1996,162 +2092,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>210000</v>
+      </c>
+      <c r="F26" s="3">
         <v>68000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>28000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-28000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>468000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>535000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>469000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>290000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1081000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2625000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>99000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-242000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-109000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>91000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>392000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>405000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>105000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>299000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>344000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>332000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>107000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>46000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>1000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-51400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>210000</v>
+      </c>
+      <c r="F27" s="3">
         <v>68000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>28000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-28000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>468000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>535000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>469000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>290000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1081000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2625000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>99000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-242000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-109000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>91000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>392000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>405000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>105000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>299000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>344000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>332000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>107000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>46000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-51400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2227,8 +2341,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2238,62 +2358,62 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
-        <v>-23000</v>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
+      <c r="L29" s="3">
+        <v>-23000</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>-6000</v>
+      <c r="N29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
+      <c r="P29" s="3">
+        <v>-6000</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
-        <v>-43000</v>
+      <c r="R29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
+      <c r="T29" s="3">
+        <v>-43000</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3">
-        <v>-126000</v>
+      <c r="V29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>10</v>
+      <c r="X29" s="3">
+        <v>-126000</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>10</v>
@@ -2304,8 +2424,14 @@
       <c r="AA29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2381,8 +2507,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2458,162 +2590,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-106000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-36000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-56000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-344000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-554000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-297000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-283000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-686000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-212000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-62000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-30000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-140000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-307000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-143000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-76000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-155000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-228000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-32000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-12000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-24800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>210000</v>
+      </c>
+      <c r="F33" s="3">
         <v>68000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>28000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-28000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>468000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>535000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>469000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>267000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1081000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2625000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>99000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-248000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-109000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>91000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>392000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>362000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>105000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>299000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>344000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>206000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>107000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>46000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>1000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-51400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2689,167 +2839,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>210000</v>
+      </c>
+      <c r="F35" s="3">
         <v>68000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>28000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-28000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>468000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>535000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>469000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>267000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1081000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2625000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>99000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-248000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-109000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>91000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>392000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>362000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>105000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>299000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>344000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>206000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>107000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>46000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>1000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-51400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2877,8 +3045,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2906,239 +3076,259 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7016000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6076000</v>
+      </c>
+      <c r="F41" s="3">
         <v>6931000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6859000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5464000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4753000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6299000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>8544000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6195000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3724000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4052000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5772000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4145000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3868000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3510000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4110000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2669000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2105000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2319000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>5922000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2543000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2071800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1949100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>2024900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>1606500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1145700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5492000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5842000</v>
+      </c>
+      <c r="F42" s="3">
         <v>6602000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>6644000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>5073000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>4638000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>3351000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>6479000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>5771000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>5768000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>5231000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>4030000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>3802000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>2661000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>2532000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>2269000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1673000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1345000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1108000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>1237000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1978000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>1556800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>1552100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>1194600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>602300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>55100</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12531000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5824000</v>
+      </c>
+      <c r="F43" s="3">
         <v>6276000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5430000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>11193000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>5261000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>5285000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>4340000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>8932000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4333000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4393000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3957000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>7100000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3386000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3118000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2939000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>5712000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2753000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2688000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2464000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>4625000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1553000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1606000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1473600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>3230800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>1307300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3214,393 +3404,429 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1356000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1467000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1437000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1478000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1120000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1305000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1321000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1081000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>991000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1121000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1170000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>954000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>916000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1111000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>743000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>717000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>629000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>667000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>687000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>528000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>964900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>764500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>704100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>711400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>557100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26395000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>19209000</v>
+      </c>
+      <c r="F46" s="3">
         <v>21246000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>20411000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>22850000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>15957000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>16256000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>20444000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>21889000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>14946000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>14846000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>14713000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>15963000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>11026000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>9903000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>10035000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>10683000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>6870000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>6802000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>10151000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>9584000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>5946200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>5811300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>5404500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>5996800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>3001600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7369000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7425000</v>
+      </c>
+      <c r="F47" s="3">
         <v>7491000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>7259000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>7126000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>5854000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>5925000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>5680000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>5666000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>5443000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>3931000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>3146000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>3404000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2983000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2800000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>2797000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>2655000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>2378000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>2371000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>2200000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>1941000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>670400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>657700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>639200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>567000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>1106300</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6592000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6418000</v>
+      </c>
+      <c r="F48" s="3">
         <v>6102000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5781000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5695000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5677000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5834000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5555000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5663000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5526000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5513000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5501000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5415000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5515000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>5187000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>5097000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2051000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1998000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1986000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1950000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1947000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1864900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1866600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1846400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1787500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1756700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>55693000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>56153000</v>
+      </c>
+      <c r="F49" s="3">
         <v>56640000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>56878000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>56915000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>57423000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>57849000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>30565000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>30432000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>30711000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>30977000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>29754000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>29858000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>30009000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>14924000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>14648000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>14926000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>15078000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>14408000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>8429000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>8478800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>8357500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>8431600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>8507900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>8567700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>7888700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3676,8 +3902,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3753,85 +3985,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2679000</v>
+      </c>
+      <c r="F52" s="3">
         <v>2669000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2693000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2623000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2525000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2794000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2641000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2651000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2510000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2513000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>509000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>486000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>409000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>522000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>577000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>422000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>264000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>256000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>233000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>999400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>651100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>651600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>661000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>675500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>634500</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3907,85 +4151,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>98849000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>91884000</v>
+      </c>
+      <c r="F54" s="3">
         <v>94148000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>93022000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>95209000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>87436000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>88658000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>64885000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>66301000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>59136000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>57780000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>53623000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>55126000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>49942000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>33336000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>33154000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>30737000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>26588000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>25823000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>22963000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>21984000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>17490000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>17418800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>17058900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>17584900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>14387700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4013,8 +4269,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4042,108 +4300,116 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6743000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5285000</v>
+      </c>
+      <c r="F57" s="3">
         <v>5446000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4603000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5474000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4231000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4274000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3439000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4355000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3546000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3485000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2916000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3356000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2763000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2271000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2050000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>165000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>160000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>201000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>134000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>146900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>120000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>148300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>128100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>227500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1182000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1182000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1183000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1002000</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1339000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>10</v>
+      <c r="J58" s="3">
+        <v>1339000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>10</v>
@@ -4154,227 +4420,245 @@
       <c r="M58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P58" s="3">
         <v>53000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>65000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>76000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>178000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>216000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>706000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>708000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>103000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1128000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1272000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1269400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1143200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>121700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17966000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11760000</v>
+      </c>
+      <c r="F59" s="3">
         <v>13451000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>14294000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>16314000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>10804000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>11780000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>11884000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>13373000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>8688000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>9478000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>9927000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>11436000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7646000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>7848000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>8260000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>10874000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>7156000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>7560000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>7658000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>9838600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>5824400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>6108500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>6354600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>7657500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>4815500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25891000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>18227000</v>
+      </c>
+      <c r="F60" s="3">
         <v>20080000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>19899000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>21788000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>15035000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>17393000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>15323000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>17728000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>12234000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>12963000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>12843000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>14845000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>10474000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>10195000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>10488000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>11255000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>8022000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>8469000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>7895000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>10067000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>7216400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>7526200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>7625900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>7295500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>4975500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9419000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9418000</v>
+      </c>
+      <c r="F61" s="3">
         <v>9416000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>9595000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>10592000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>10591000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>10589000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>2672000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>2673000</v>
       </c>
       <c r="K61" s="3">
         <v>2672000</v>
@@ -4383,129 +4667,141 @@
         <v>2673000</v>
       </c>
       <c r="M61" s="3">
+        <v>2672000</v>
+      </c>
+      <c r="N61" s="3">
         <v>2673000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
+        <v>2673000</v>
+      </c>
+      <c r="P61" s="3">
         <v>3005000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3158000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3309000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>3532000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>3430000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>3685000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>3690000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>3885000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>695000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1327000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>1329900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>1392300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>2690000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>2496200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5180000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4888000</v>
+      </c>
+      <c r="F62" s="3">
         <v>4554000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>4652000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4698000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4756000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>5156000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4323000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4407000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3920000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3704000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3542000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3391000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3031000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2666000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2688000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>447000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>188000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>136000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>123000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>967000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>117200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>111400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>106300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>136500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4581,8 +4877,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4658,8 +4960,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4735,85 +5043,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>40490000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>32533000</v>
+      </c>
+      <c r="F66" s="3">
         <v>34050000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>34146000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>37078000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>30382000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>33138000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>22318000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>24808000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>18826000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>19340000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>19058000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>21241000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>16663000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>16170000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>16708000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>15132000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>11895000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>12295000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>11903000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>11608000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>8660700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>8967500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>9124400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>10084800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>7581600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4841,8 +5161,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4918,8 +5240,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4995,8 +5323,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5072,8 +5406,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5149,85 +5489,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7585000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>7683000</v>
+      </c>
+      <c r="F72" s="3">
         <v>7473000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>7405000</v>
-      </c>
-      <c r="F72" s="3">
-        <v>7377000</v>
       </c>
       <c r="G72" s="3">
         <v>7405000</v>
       </c>
       <c r="H72" s="3">
+        <v>7377000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>7405000</v>
+      </c>
+      <c r="J72" s="3">
         <v>6937000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>6402000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>5933000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5666000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4585000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1960000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1861000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2109000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2218000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>2127000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1735000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1373000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1269000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>969000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>635000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-405000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-456400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-474100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-464900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-413500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5303,8 +5655,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5380,8 +5738,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5457,85 +5821,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>58359000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>59351000</v>
+      </c>
+      <c r="F76" s="3">
         <v>60098000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>58876000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>58131000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>57054000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>55520000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>42567000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>41493000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>40310000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>38440000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>34565000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>33885000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>33279000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>17166000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>16446000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>15605000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>14693000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>13528000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>11060000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>10376000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>8829400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>8451300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>7934500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>7500100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>6806000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5611,167 +5987,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>210000</v>
+      </c>
+      <c r="F81" s="3">
         <v>68000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>28000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-28000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>468000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>535000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>469000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>267000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1081000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2625000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>99000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-248000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-109000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>91000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>392000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>362000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>105000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>299000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>344000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>206000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>107000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>46000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>1000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-51400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5799,85 +6193,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1032000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>941000</v>
+      </c>
+      <c r="F83" s="3">
         <v>907000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>906000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>931000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>963000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>719000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>685000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>869000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>670000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>649000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>658000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>633000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>608000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>457000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>437000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>273000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>256000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>252000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>181000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>188000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>187600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>192300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>185100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>180800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5953,8 +6355,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6030,8 +6438,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6107,8 +6521,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6184,8 +6604,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6261,85 +6687,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2788000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>313000</v>
+      </c>
+      <c r="F89" s="3">
         <v>334000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3676000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1982000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>404000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>386000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>3228000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2174000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>339000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>429000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1859000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1632000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>298000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>436000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1965000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1331000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>143000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>458000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1466000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1051400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>125600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>331000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1230000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>706100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6367,85 +6805,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-198000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-203000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-179000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-167000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-166000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-213000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-171000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-149000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-124000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-114000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-323000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-136000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-170000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-178000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-159000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-167000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-136000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-170000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-122000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-138000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-111000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-128400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-313600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-144000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6521,8 +6967,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6598,85 +7050,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>533000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-377000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2457000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1459000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-976000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-11054000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1047000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>94000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2593000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-437000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1465000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>63000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-852000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-726000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-378000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-545000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-4661000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>276000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-583900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-135300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-523600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-767700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-497800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-193800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6704,8 +7168,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6781,8 +7247,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6858,8 +7330,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6935,8 +7413,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7012,235 +7496,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2221000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1678000</v>
+      </c>
+      <c r="F100" s="3">
         <v>136000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>201000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>203000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-970000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>8440000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>165000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>176000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>368000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>441000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>209000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>125000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>15000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-183000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>207000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-386000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>182000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>589000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1625000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>19200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>134000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>117000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-49000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>260000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>81800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-21000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-25000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-15000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-17000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>27000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-15000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-18000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-5000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>6000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>11000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>12000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-15800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-1400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>6100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-7500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>940000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-855000</v>
+      </c>
+      <c r="F102" s="3">
         <v>72000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1395000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>711000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1546000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2245000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2349000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2471000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-328000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1720000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1627000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>277000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>358000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-600000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1441000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>564000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-214000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-3603000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>3379000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>471600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>122700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-75800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>418400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>460800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>30500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>CRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,355 +665,379 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="31" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8603000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8247000</v>
+      </c>
+      <c r="F8" s="3">
         <v>8384000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>7837000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7720000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>7411000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>7326000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>6863000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6340000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5963000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5817000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5419000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5151000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4865000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4851000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4513000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3997000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3737000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3603000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>3392000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>3281000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>3006000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2865000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2701000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>2577000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2397000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>2294000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>2144800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2113000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2125000</v>
+      </c>
+      <c r="F9" s="3">
         <v>2100000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2088000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2127000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2045000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2014000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1844000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1613000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1555000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1479000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1394000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1311000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1254000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1220000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1134000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>967000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>914000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>946000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>889000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>849000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>767000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>738000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>714000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>670000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>651000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>626000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>585500</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6490000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6122000</v>
+      </c>
+      <c r="F10" s="3">
         <v>6284000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>5749000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5593000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>5366000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5312000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>5019000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4727000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4408000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4338000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4025000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3840000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>3611000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>3631000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>3379000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>3030000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2823000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2657000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>2503000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>2432000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>2239000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>2127000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1987000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>1907000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>1746000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>1668000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>1559300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1043,91 +1067,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1220000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1207000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1128000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1280000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1329000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1318000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1291000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1203000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1020000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>951000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>939000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>902000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>898000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>859000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>831000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>774000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>607000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>554000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>518000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>481000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>463000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>424000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>396000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>394000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>387000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>376000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>344200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>311500</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1209,76 +1241,82 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>888000</v>
+      </c>
+      <c r="F14" s="3">
         <v>1198000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>68000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>42000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>11000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>6000</v>
       </c>
       <c r="I14" s="3">
         <v>11000</v>
       </c>
       <c r="J14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="L14" s="3">
         <v>20000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>14000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>166000</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>3000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>19000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>5000</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>10</v>
@@ -1292,91 +1330,103 @@
       <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E15" s="3">
         <v>223000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>223000</v>
+      </c>
+      <c r="G15" s="3">
         <v>224000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>232000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>237000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>236000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>236000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>135000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>120000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>115000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>114000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>118000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>112000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>110000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>109000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>65000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>68000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>68000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>67000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>67000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>30000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>30300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>30400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>31400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>31400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>31600</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1403,174 +1453,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7207000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8012000</v>
+      </c>
+      <c r="F17" s="3">
         <v>8397000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7445000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7569000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>7402000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7508000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6836000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6028000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5623000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5624000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5195000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4973000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5005000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4887000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4448000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3939000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3527000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3466000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3300000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3166000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2815000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2654000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2546000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2493000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2393000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>2317900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>2142300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1396000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>235000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-13000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>392000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>151000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>9000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-182000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>27000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>312000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>340000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>193000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>224000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>178000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-140000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>65000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>58000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>210000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>137000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>92000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>115000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>191000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>211000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>155000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>84000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>4000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-23900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1600,423 +1664,455 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>91000</v>
+      </c>
+      <c r="F20" s="3">
         <v>109000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>158000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>106000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>36000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>56000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>344000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>554000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>297000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>283000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1051000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>686000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>212000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>62000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>30000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>140000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>307000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>143000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>76000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>155000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>228000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>32000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>12000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>1000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>8000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>24800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2452000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1580000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1128000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1491000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1164000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>951000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>805000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1334000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1585000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1322000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1345000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1945000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1513000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>730000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>659000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>703000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>655000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>954000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>553000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>424000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>522000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>600000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>431000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>355000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>277000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>197000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>181600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>178700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3">
         <v>63000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>75000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>76000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>74000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>71000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>72000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>40000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>33000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>51000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>25000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>25000</v>
       </c>
       <c r="O22" s="3">
         <v>25000</v>
       </c>
       <c r="P22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="R22" s="3">
         <v>30000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>31000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>34000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>35000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>41000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>40000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>39000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>34000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>22000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>21000</v>
       </c>
       <c r="Z22" s="3">
         <v>22000</v>
       </c>
       <c r="AA22" s="3">
+        <v>21000</v>
+      </c>
+      <c r="AB22" s="3">
         <v>22000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="AD22" s="3">
         <v>24300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1492000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>326000</v>
+      </c>
+      <c r="F23" s="3">
         <v>33000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>475000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>181000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-29000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-197000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>299000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>826000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>604000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>425000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1250000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>839000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>47000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>64000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>164000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>482000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>239000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>128000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>231000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>385000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>221000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>146000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>63000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-10000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-23500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>127000</v>
+      </c>
+      <c r="F24" s="3">
         <v>131000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>265000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>113000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-57000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-169000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-169000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>291000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>135000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>135000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>169000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-1786000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-52000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>238000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>173000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>73000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>90000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-166000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>23000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-68000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>41000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-111000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>39000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>17000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-11000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>28000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2098,174 +2194,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1267000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>199000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-98000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>210000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>68000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>28000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-28000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>468000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>535000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>469000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>290000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1081000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2625000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>99000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-242000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-109000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>91000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>392000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>405000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>105000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>299000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>344000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>332000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>107000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>46000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>1000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-51400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1267000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>199000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-98000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>210000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>68000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>28000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-28000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>468000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>535000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>469000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>290000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1081000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2625000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>99000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-242000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-109000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>91000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>392000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>405000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>105000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>299000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>344000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>332000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>107000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>46000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>1000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-51400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2347,8 +2461,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2364,62 +2484,62 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>-23000</v>
+      <c r="L29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
+      <c r="N29" s="3">
+        <v>-23000</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
-        <v>-6000</v>
+      <c r="P29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
+      <c r="R29" s="3">
+        <v>-6000</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
-        <v>-43000</v>
+      <c r="T29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
+      <c r="V29" s="3">
+        <v>-43000</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X29" s="3">
-        <v>-126000</v>
+      <c r="X29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>10</v>
+      <c r="Z29" s="3">
+        <v>-126000</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>10</v>
@@ -2430,8 +2550,14 @@
       <c r="AC29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2513,8 +2639,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2596,174 +2728,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-109000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-158000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-106000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-36000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-56000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-344000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-554000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-297000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-283000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-686000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-212000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-62000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-30000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-140000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-307000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-143000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-76000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-155000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-228000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-32000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-12000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-8000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-24800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1267000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>199000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-98000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>210000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>68000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>28000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-28000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>468000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>535000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>469000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>267000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1081000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2625000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>99000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-248000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-109000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>91000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>392000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>362000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>105000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>299000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>344000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>206000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>107000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>46000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>1000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-51400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2845,179 +2995,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1267000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>199000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-98000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>210000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>68000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>28000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-28000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>468000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>535000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>469000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>267000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1081000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2625000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>99000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-248000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-109000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>91000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>392000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>362000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>105000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>299000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>344000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>206000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>107000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>46000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>1000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-51400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3047,8 +3215,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3078,257 +3248,277 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6772000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9155000</v>
+      </c>
+      <c r="F41" s="3">
         <v>7016000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6076000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6931000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6859000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>5464000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4753000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6299000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>8544000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6195000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3724000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4052000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5772000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4145000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3868000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3510000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4110000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2669000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2105000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2319000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>5922000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2543000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>2071800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>1949100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>2024900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>1606500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>1145700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5625000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4822000</v>
+      </c>
+      <c r="F42" s="3">
         <v>5492000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>5842000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>6602000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>6644000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>5073000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>4638000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3351000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>6479000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>5771000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>5768000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>5231000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>4030000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>3802000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>2661000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>2532000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>2269000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1673000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>1345000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1108000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>1237000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>1978000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>1556800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>1552100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>1194600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>602300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>55100</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7181000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6404000</v>
+      </c>
+      <c r="F43" s="3">
         <v>12531000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5824000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>6276000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>5430000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>11193000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>5261000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5285000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4340000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>8932000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>4333000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>4393000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3957000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>7100000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>3386000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3118000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2939000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>5712000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2753000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>2688000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>2464000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>4625000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1553000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>1606000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>1473600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>3230800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>1307300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3410,423 +3600,459 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1560000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1600000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1356000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1467000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1437000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1478000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1120000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1305000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1321000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1081000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>991000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1121000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1170000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>954000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>916000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1111000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>743000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>717000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>629000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>667000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>687000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>528000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>964900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>764500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>704100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>711400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>557100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21138000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>21981000</v>
+      </c>
+      <c r="F46" s="3">
         <v>26395000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>19209000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>21246000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>20411000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>22850000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>15957000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>16256000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>20444000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>21889000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>14946000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>14846000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>14713000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>15963000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>11026000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>9903000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>10035000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>10683000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>6870000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>6802000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>10151000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>9584000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>5946200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>5811300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>5404500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>5996800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>3001600</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7130000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7139000</v>
+      </c>
+      <c r="F47" s="3">
         <v>7369000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>7425000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>7491000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>7259000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>7126000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>5854000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>5925000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>5680000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>5666000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>5443000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>3931000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>3146000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>3404000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>2983000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>2800000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>2797000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>2655000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>2378000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>2371000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>2200000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>1941000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>670400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>657700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>639200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>567000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>1106300</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6451000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6341000</v>
+      </c>
+      <c r="F48" s="3">
         <v>6592000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>6418000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>6102000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5781000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5695000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5677000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5834000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5555000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5663000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5526000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5513000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5501000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>5415000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>5515000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>5187000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>5097000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2051000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1998000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1986000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1950000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1947000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1864900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1866600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1846400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>1787500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>1756700</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>54748000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>55221000</v>
+      </c>
+      <c r="F49" s="3">
         <v>55693000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>56153000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>56640000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>56878000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>56915000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>57423000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>57849000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>30565000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>30432000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>30711000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>30977000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>29754000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>29858000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>30009000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>14924000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>14648000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>14926000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>15078000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>14408000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>8429000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>8478800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>8357500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>8431600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>8507900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>8567700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>7888700</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3908,8 +4134,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3991,91 +4223,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2980000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2859000</v>
+      </c>
+      <c r="F52" s="3">
         <v>2800000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2679000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2669000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2693000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2623000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2525000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2794000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2641000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2651000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2510000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2513000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>509000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>486000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>409000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>522000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>577000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>422000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>264000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>256000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>233000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>999400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>651100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>651600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>661000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>675500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>634500</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4157,91 +4401,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>92447000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>93541000</v>
+      </c>
+      <c r="F54" s="3">
         <v>98849000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>91884000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>94148000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>93022000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>95209000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>87436000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>88658000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>64885000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>66301000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>59136000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>57780000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>53623000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>55126000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>49942000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>33336000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>33154000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>30737000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>26588000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>25823000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>22963000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>21984000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>17490000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>17418800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>17058900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>17584900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>14387700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4271,8 +4527,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4302,120 +4560,128 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5059000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5733000</v>
+      </c>
+      <c r="F57" s="3">
         <v>6743000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5285000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5446000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4603000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5474000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4231000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4274000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3439000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4355000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3546000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3485000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2916000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3356000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2763000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2271000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2050000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>165000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>160000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>201000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>134000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>146900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>120000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>148300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>128100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>227500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>999000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>181000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1182000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1182000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1183000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1002000</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1339000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>10</v>
+      <c r="L58" s="3">
+        <v>1339000</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>10</v>
@@ -4426,245 +4692,263 @@
       <c r="O58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R58" s="3">
         <v>53000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>65000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>76000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>178000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>216000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>706000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>708000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>103000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1128000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1272000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>1269400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>1143200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>121700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14747000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>15712000</v>
+      </c>
+      <c r="F59" s="3">
         <v>17966000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>11760000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>13451000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>14294000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>16314000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>10804000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11780000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>11884000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>13373000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>8688000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>9478000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>9927000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>11436000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>7646000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>7848000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>8260000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>10874000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>7156000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>7560000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>7658000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>9838600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>5824400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>6108500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>6354600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>7657500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>4815500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20805000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>21626000</v>
+      </c>
+      <c r="F60" s="3">
         <v>25891000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>18227000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>20080000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>19899000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>21788000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>15035000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>17393000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>15323000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>17728000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>12234000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>12963000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>12843000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>14845000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>10474000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>10195000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>10488000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>11255000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>8022000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>8469000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>7895000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>10067000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>7216400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>7526200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>7625900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>7295500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>4975500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8424000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9421000</v>
+      </c>
+      <c r="F61" s="3">
         <v>9419000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>9418000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>9416000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>9595000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>10592000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>10591000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>10589000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>2672000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>2673000</v>
       </c>
       <c r="M61" s="3">
         <v>2672000</v>
@@ -4673,135 +4957,147 @@
         <v>2673000</v>
       </c>
       <c r="O61" s="3">
+        <v>2672000</v>
+      </c>
+      <c r="P61" s="3">
         <v>2673000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
+        <v>2673000</v>
+      </c>
+      <c r="R61" s="3">
         <v>3005000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>3158000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>3309000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>3532000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>3430000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>3685000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>3690000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>3885000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>695000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>1327000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>1329900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>1392300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>2690000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>2496200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5136000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5082000</v>
+      </c>
+      <c r="F62" s="3">
         <v>5180000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>4888000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4554000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4652000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>4698000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4756000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5156000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>4323000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>4407000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3920000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3704000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3542000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3391000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>3031000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2666000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>2688000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>447000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>188000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>136000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>123000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>967000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>117200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>111400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>106300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>136500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4883,8 +5179,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4966,8 +5268,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5049,91 +5357,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34365000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>36129000</v>
+      </c>
+      <c r="F66" s="3">
         <v>40490000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>32533000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>34050000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>34146000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>37078000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>30382000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>33138000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>22318000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>24808000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>18826000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>19340000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>19058000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>21241000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>16663000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>16170000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>16708000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>15132000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>11895000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>12295000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>11903000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>11608000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>8660700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>8967500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>9124400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>10084800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>7581600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5163,8 +5483,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5246,8 +5568,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5329,8 +5657,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5412,8 +5746,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5495,91 +5835,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9051000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>7784000</v>
+      </c>
+      <c r="F72" s="3">
         <v>7585000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>7683000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>7473000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>7405000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>7377000</v>
       </c>
       <c r="I72" s="3">
         <v>7405000</v>
       </c>
       <c r="J72" s="3">
+        <v>7377000</v>
+      </c>
+      <c r="K72" s="3">
+        <v>7405000</v>
+      </c>
+      <c r="L72" s="3">
         <v>6937000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>6402000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>5933000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>5666000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>4585000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1960000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1861000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>2109000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>2218000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>2127000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1735000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1373000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1269000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>969000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>635000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-405000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-456400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-474100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-464900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-413500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5661,8 +6013,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5744,8 +6102,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5827,91 +6191,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>58082000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>57412000</v>
+      </c>
+      <c r="F76" s="3">
         <v>58359000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>59351000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>60098000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>58876000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>58131000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>57054000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>55520000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>42567000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>41493000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>40310000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>38440000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>34565000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>33885000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>33279000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>17166000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>16446000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>15605000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>14693000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>13528000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>11060000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>10376000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>8829400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>8451300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>7934500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>7500100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>6806000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5993,179 +6369,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1267000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>199000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-98000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>210000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>68000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>28000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-28000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>468000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>535000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>469000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>267000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1081000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2625000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>99000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-248000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-109000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>91000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>392000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>362000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>105000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>299000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>344000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>206000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>107000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>46000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>1000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-51400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6195,91 +6589,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>890000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1254000</v>
+      </c>
+      <c r="F83" s="3">
         <v>1032000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>941000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>907000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>906000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>931000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>963000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>719000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>685000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>869000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>670000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>649000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>658000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>633000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>608000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>457000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>437000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>273000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>256000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>252000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>181000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>188000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>187600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>192300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>185100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>180800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6361,8 +6763,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6444,8 +6852,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6527,8 +6941,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6610,8 +7030,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6693,91 +7119,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>808000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4491000</v>
+      </c>
+      <c r="F89" s="3">
         <v>2788000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>313000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>334000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3676000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1982000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>404000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>386000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3228000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2174000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>339000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>429000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1859000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1632000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>298000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>436000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1965000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1331000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>143000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>458000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1466000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>1051400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>125600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>331000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>1230000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>706100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6807,91 +7245,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-218000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-198000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-203000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-179000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-167000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-166000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-213000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-171000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-149000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-124000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-114000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-323000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-136000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-170000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-178000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-159000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-167000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-136000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-170000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-122000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-138000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-111000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-128400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-313600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-144000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6973,8 +7419,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7056,91 +7508,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1152000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>347000</v>
+      </c>
+      <c r="F94" s="3">
         <v>312000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>533000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-377000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2457000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1459000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-976000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-11054000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1047000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>94000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-2593000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-437000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1465000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>63000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-852000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-726000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-378000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-545000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-4661000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>276000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-583900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-135300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-523600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-767700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-497800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-193800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7170,8 +7634,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7253,8 +7719,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7336,8 +7808,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7419,8 +7897,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7502,253 +7986,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2050000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2716000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2221000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1678000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>136000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>201000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>203000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-970000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>8440000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>165000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>176000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>368000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>441000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>209000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>125000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>15000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-183000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>207000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-386000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>182000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>589000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1625000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>19200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>134000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>117000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-49000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>260000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>81800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F101" s="3">
         <v>61000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-23000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-21000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-25000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-15000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-17000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>27000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-18000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-5000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>6000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>11000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>12000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-15800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>6100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-7500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2383000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2139000</v>
+      </c>
+      <c r="F102" s="3">
         <v>940000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-855000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>72000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1395000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>711000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1546000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2245000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2349000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2471000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-328000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1720000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1627000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>277000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>358000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-600000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1441000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>564000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-214000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-3603000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>3379000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>471600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>122700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-75800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>418400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>460800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>30500</v>
       </c>
     </row>
